--- a/Kode/Server2/Logs/lora_node2/2020-05-25.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-05-25.xlsx
@@ -2983,7 +2983,7 @@
         <v>0.045</v>
       </c>
       <c r="F131" t="n">
-        <v>0.00010602</v>
+        <v>0.10602</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>0.045</v>
       </c>
       <c r="F132" t="n">
-        <v>0.00010764</v>
+        <v>0.10764</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>0.105</v>
       </c>
       <c r="F133" t="n">
-        <v>0.00024066</v>
+        <v>0.24066</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>0.105</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00024318</v>
+        <v>0.24318</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>0.135</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0003105000000000001</v>
+        <v>0.3105000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>0.15</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0003414000000000001</v>
+        <v>0.3414000000000001</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>0.18</v>
       </c>
       <c r="F137" t="n">
-        <v>0.00040176</v>
+        <v>0.40176</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>0.165</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0003762</v>
+        <v>0.3762</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>0.195</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0004391400000000001</v>
+        <v>0.4391400000000001</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>0.225</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0004869</v>
+        <v>0.4869</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>0.21</v>
       </c>
       <c r="F141" t="n">
-        <v>0.00046704</v>
+        <v>0.46704</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>0.225</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0005139000000000001</v>
+        <v>0.5139</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>0.24</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00053856</v>
+        <v>0.53856</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>0.27</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0005918400000000001</v>
+        <v>0.59184</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>0.315</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0006741000000000001</v>
+        <v>0.6741</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>0.36</v>
       </c>
       <c r="F146" t="n">
-        <v>0.00080064</v>
+        <v>0.80064</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>0.405</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0008974800000000001</v>
+        <v>0.8974800000000001</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>0.405</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0009007199999999999</v>
+        <v>0.90072</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>0.405</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00091044</v>
+        <v>0.91044</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>0.39</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0008564400000000001</v>
+        <v>0.8564400000000001</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>0.405</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0009072</v>
+        <v>0.9072</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>0.435</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00092742</v>
+        <v>0.92742</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>0.405</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00089586</v>
+        <v>0.89586</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>0.39</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0008642400000000002</v>
+        <v>0.8642400000000001</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>0.42</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0009508800000000001</v>
+        <v>0.9508800000000001</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>0.465</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00102672</v>
+        <v>1.02672</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>0.435</v>
       </c>
       <c r="F157" t="n">
-        <v>0.00093786</v>
+        <v>0.93786</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>0.42</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0009492000000000001</v>
+        <v>0.9492</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>0.495</v>
       </c>
       <c r="F159" t="n">
-        <v>0.00109692</v>
+        <v>1.09692</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0012432</v>
+        <v>1.2432</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>0.6</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0013536</v>
+        <v>1.3536</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>0.001518</v>
+        <v>1.518</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>0.72</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00155232</v>
+        <v>1.55232</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>0.72</v>
       </c>
       <c r="F164" t="n">
-        <v>0.00157824</v>
+        <v>1.57824</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00151524</v>
+        <v>1.51524</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F166" t="n">
-        <v>0.00143352</v>
+        <v>1.43352</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0014877</v>
+        <v>1.4877</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>0.72</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00158112</v>
+        <v>1.58112</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>0.78</v>
       </c>
       <c r="F169" t="n">
-        <v>0.001716</v>
+        <v>1.716</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>0.84</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00182448</v>
+        <v>1.82448</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>0.945</v>
       </c>
       <c r="F171" t="n">
-        <v>0.00201474</v>
+        <v>2.01474</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>1.035</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00218178</v>
+        <v>2.18178</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>1.2</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0025536</v>
+        <v>2.5536</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>1.26</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00255528</v>
+        <v>2.55528</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>1.29</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00261096</v>
+        <v>2.61096</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>1.26</v>
       </c>
       <c r="F176" t="n">
-        <v>0.002646</v>
+        <v>2.646</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>1.215</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0025272</v>
+        <v>2.5272</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>1.2</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0025248</v>
+        <v>2.5248</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>1.2</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0025728</v>
+        <v>2.5728</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>1.32</v>
       </c>
       <c r="F180" t="n">
-        <v>0.00262944</v>
+        <v>2.62944</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>1.395</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00253332</v>
+        <v>2.53332</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>1.47</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00268128</v>
+        <v>2.68128</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>1.635</v>
       </c>
       <c r="F183" t="n">
-        <v>0.00308688</v>
+        <v>3.08688</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>1.68</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00321216</v>
+        <v>3.21216</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>1.68</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00320544</v>
+        <v>3.20544</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>1.785</v>
       </c>
       <c r="F186" t="n">
-        <v>0.00347004</v>
+        <v>3.47004</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>1.44</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0026208</v>
+        <v>2.6208</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>1.425</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0025821</v>
+        <v>2.5821</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>1.5</v>
       </c>
       <c r="F189" t="n">
-        <v>0.002754</v>
+        <v>2.754</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>1.605</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0030495</v>
+        <v>3.0495</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>1.8</v>
       </c>
       <c r="F191" t="n">
-        <v>0.003520799999999999</v>
+        <v>3.520799999999999</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>1.905</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00379476</v>
+        <v>3.79476</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>2.04</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0041616</v>
+        <v>4.1616</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>2.19</v>
       </c>
       <c r="F194" t="n">
-        <v>0.004546440000000001</v>
+        <v>4.546440000000001</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>2.22</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00462648</v>
+        <v>4.62648</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>2.205</v>
       </c>
       <c r="F196" t="n">
-        <v>0.004595220000000001</v>
+        <v>4.595220000000001</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>2.235</v>
       </c>
       <c r="F197" t="n">
-        <v>0.00465774</v>
+        <v>4.65774</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>2.22</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00463536</v>
+        <v>4.635359999999999</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>2.28</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00477888</v>
+        <v>4.77888</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>2.415</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00510048</v>
+        <v>5.10048</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>2.535</v>
       </c>
       <c r="F201" t="n">
-        <v>0.005414759999999999</v>
+        <v>5.414759999999999</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>2.76</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00591744</v>
+        <v>5.91744</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>2.655</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00570294</v>
+        <v>5.70294</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>2.505</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00532062</v>
+        <v>5.32062</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>2.46</v>
       </c>
       <c r="F205" t="n">
-        <v>0.005185680000000001</v>
+        <v>5.185680000000001</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>2.4</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0050496</v>
+        <v>5.0496</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>2.46</v>
       </c>
       <c r="F207" t="n">
-        <v>0.005166</v>
+        <v>5.165999999999999</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>2.67</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00569244</v>
+        <v>5.69244</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>2.775</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0059718</v>
+        <v>5.9718</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>2.88</v>
       </c>
       <c r="F210" t="n">
-        <v>0.006197760000000001</v>
+        <v>6.197760000000001</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>2.94</v>
       </c>
       <c r="F211" t="n">
-        <v>0.00632688</v>
+        <v>6.32688</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>2.79</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00598176</v>
+        <v>5.98176</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>2.88</v>
       </c>
       <c r="F213" t="n">
-        <v>0.00614016</v>
+        <v>6.140160000000001</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>2.91</v>
       </c>
       <c r="F214" t="n">
-        <v>0.006297239999999999</v>
+        <v>6.29724</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>2.775</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0060051</v>
+        <v>6.005100000000001</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>2.655</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00567108</v>
+        <v>5.67108</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>2.505</v>
       </c>
       <c r="F217" t="n">
-        <v>0.00532062</v>
+        <v>5.32062</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>2.385</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0050085</v>
+        <v>5.0085</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>2.385</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0050085</v>
+        <v>5.0085</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>2.415</v>
       </c>
       <c r="F220" t="n">
-        <v>0.00508116</v>
+        <v>5.081160000000001</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>2.4</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0050496</v>
+        <v>5.0496</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>2.4</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00504</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>2.49</v>
       </c>
       <c r="F223" t="n">
-        <v>0.00529872</v>
+        <v>5.298719999999999</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>2.535</v>
       </c>
       <c r="F224" t="n">
-        <v>0.005414759999999999</v>
+        <v>5.414759999999999</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>2.445</v>
       </c>
       <c r="F225" t="n">
-        <v>0.005163839999999999</v>
+        <v>5.16384</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>2.31</v>
       </c>
       <c r="F226" t="n">
-        <v>0.004841760000000001</v>
+        <v>4.841760000000002</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>2.415</v>
       </c>
       <c r="F227" t="n">
-        <v>0.00510048</v>
+        <v>5.10048</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>2.85</v>
       </c>
       <c r="F228" t="n">
-        <v>0.006190200000000001</v>
+        <v>6.190200000000001</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>2.985</v>
       </c>
       <c r="F229" t="n">
-        <v>0.006459540000000001</v>
+        <v>6.459540000000001</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>2.97</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00642708</v>
+        <v>6.42708</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>3.135</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0068343</v>
+        <v>6.8343</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>3.3</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0072072</v>
+        <v>7.2072</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>2.34</v>
       </c>
       <c r="F233" t="n">
-        <v>0.004885919999999999</v>
+        <v>4.88592</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>2.16</v>
       </c>
       <c r="F234" t="n">
-        <v>0.00447552</v>
+        <v>4.47552</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>2.025</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0041067</v>
+        <v>4.1067</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>2.1</v>
       </c>
       <c r="F236" t="n">
-        <v>0.004326000000000001</v>
+        <v>4.326000000000001</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>2.1</v>
       </c>
       <c r="F237" t="n">
-        <v>0.004326000000000001</v>
+        <v>4.326000000000001</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>2.1</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0043176</v>
+        <v>4.317600000000001</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>2.16</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00447552</v>
+        <v>4.47552</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>2.385</v>
       </c>
       <c r="F240" t="n">
-        <v>0.00501804</v>
+        <v>5.01804</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>2.61</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0055854</v>
+        <v>5.5854</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>2.415</v>
       </c>
       <c r="F242" t="n">
-        <v>0.00506184</v>
+        <v>5.06184</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>2.265</v>
       </c>
       <c r="F243" t="n">
-        <v>0.00472026</v>
+        <v>4.720260000000001</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>2.22</v>
       </c>
       <c r="F244" t="n">
-        <v>0.00464424</v>
+        <v>4.64424</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>2.22</v>
       </c>
       <c r="F245" t="n">
-        <v>0.00460872</v>
+        <v>4.60872</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>2.235</v>
       </c>
       <c r="F246" t="n">
-        <v>0.004666679999999999</v>
+        <v>4.666679999999999</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>2.28</v>
       </c>
       <c r="F247" t="n">
-        <v>0.004760639999999999</v>
+        <v>4.76064</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>2.22</v>
       </c>
       <c r="F248" t="n">
-        <v>0.00463536</v>
+        <v>4.635359999999999</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>2.19</v>
       </c>
       <c r="F249" t="n">
-        <v>0.004555200000000001</v>
+        <v>4.5552</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>2.145</v>
       </c>
       <c r="F250" t="n">
-        <v>0.00444444</v>
+        <v>4.44444</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>2.145</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00445302</v>
+        <v>4.45302</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>2.13</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00441336</v>
+        <v>4.41336</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>2.19</v>
       </c>
       <c r="F253" t="n">
-        <v>0.004555200000000001</v>
+        <v>4.5552</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>2.37</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00496752</v>
+        <v>4.967519999999999</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>3.075</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0067281</v>
+        <v>6.7281</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>3.06</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0066096</v>
+        <v>6.6096</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>3.06</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00662184</v>
+        <v>6.621840000000001</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>3.18</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00694512</v>
+        <v>6.94512</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>3.21</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0069336</v>
+        <v>6.9336</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>3.165</v>
       </c>
       <c r="F260" t="n">
-        <v>0.006849060000000001</v>
+        <v>6.849060000000001</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>3.165</v>
       </c>
       <c r="F261" t="n">
-        <v>0.006975660000000001</v>
+        <v>6.97566</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>2.955</v>
       </c>
       <c r="F262" t="n">
-        <v>0.0063828</v>
+        <v>6.3828</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>3.465</v>
       </c>
       <c r="F263" t="n">
-        <v>0.007525980000000001</v>
+        <v>7.525980000000001</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>2.565</v>
       </c>
       <c r="F264" t="n">
-        <v>0.00546858</v>
+        <v>5.46858</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>2.175</v>
       </c>
       <c r="F265" t="n">
-        <v>0.004524</v>
+        <v>4.524</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>2.19</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00453768</v>
+        <v>4.53768</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>2.19</v>
       </c>
       <c r="F267" t="n">
-        <v>0.004546440000000001</v>
+        <v>4.546440000000001</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>2.25</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00468</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>2.34</v>
       </c>
       <c r="F269" t="n">
-        <v>0.004876559999999999</v>
+        <v>4.87656</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>2.43</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00516132</v>
+        <v>5.16132</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>2.535</v>
       </c>
       <c r="F271" t="n">
-        <v>0.005435039999999999</v>
+        <v>5.435039999999999</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>2.49</v>
       </c>
       <c r="F272" t="n">
-        <v>0.00528876</v>
+        <v>5.28876</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>2.595</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00551178</v>
+        <v>5.51178</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>2.73</v>
       </c>
       <c r="F274" t="n">
-        <v>0.00587496</v>
+        <v>5.874960000000001</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>2.94</v>
       </c>
       <c r="F275" t="n">
-        <v>0.00636216</v>
+        <v>6.36216</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>3.18</v>
       </c>
       <c r="F276" t="n">
-        <v>0.00695784</v>
+        <v>6.95784</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>3.375</v>
       </c>
       <c r="F277" t="n">
-        <v>0.007357500000000001</v>
+        <v>7.357500000000001</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>3.45</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0076038</v>
+        <v>7.6038</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>3.27</v>
       </c>
       <c r="F279" t="n">
-        <v>0.007076280000000001</v>
+        <v>7.076280000000001</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>3.015</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0065727</v>
+        <v>6.5727</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="F281" t="n">
-        <v>0.006528000000000001</v>
+        <v>6.528</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>3.585</v>
       </c>
       <c r="F282" t="n">
-        <v>0.00777228</v>
+        <v>7.77228</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>3.915</v>
       </c>
       <c r="F283" t="n">
-        <v>0.008659980000000001</v>
+        <v>8.659980000000001</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>4.02</v>
       </c>
       <c r="F284" t="n">
-        <v>0.008876160000000001</v>
+        <v>8.87616</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F285" t="n">
-        <v>0.00909132</v>
+        <v>9.09132</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>3.975</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0087609</v>
+        <v>8.760899999999999</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>3.87</v>
       </c>
       <c r="F287" t="n">
-        <v>0.008606880000000001</v>
+        <v>8.60688</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>4.2</v>
       </c>
       <c r="F288" t="n">
-        <v>0.009223200000000001</v>
+        <v>9.2232</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>4.605</v>
       </c>
       <c r="F289" t="n">
-        <v>0.01007574</v>
+        <v>10.07574</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>5.04</v>
       </c>
       <c r="F290" t="n">
-        <v>0.01124928</v>
+        <v>11.24928</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>5.34</v>
       </c>
       <c r="F291" t="n">
-        <v>0.01155576</v>
+        <v>11.55576</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>5.13</v>
       </c>
       <c r="F292" t="n">
-        <v>0.01130652</v>
+        <v>11.30652</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>4.035</v>
       </c>
       <c r="F293" t="n">
-        <v>0.008828580000000001</v>
+        <v>8.828580000000001</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>3.975</v>
       </c>
       <c r="F294" t="n">
-        <v>0.008744999999999999</v>
+        <v>8.744999999999999</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>4.38</v>
       </c>
       <c r="F295" t="n">
-        <v>0.009741120000000001</v>
+        <v>9.74112</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>4.605</v>
       </c>
       <c r="F296" t="n">
-        <v>0.01024152</v>
+        <v>10.24152</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>5.024999999999999</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0111153</v>
+        <v>11.1153</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>5.444999999999999</v>
       </c>
       <c r="F298" t="n">
-        <v>0.01202256</v>
+        <v>12.02256</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>6.105</v>
       </c>
       <c r="F299" t="n">
-        <v>0.01338216</v>
+        <v>13.38216</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>6.87</v>
       </c>
       <c r="F300" t="n">
-        <v>0.01489416</v>
+        <v>14.89416</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>6.63</v>
       </c>
       <c r="F301" t="n">
-        <v>0.01474512</v>
+        <v>14.74512</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>8.34</v>
       </c>
       <c r="F302" t="n">
-        <v>0.01794768</v>
+        <v>17.94768</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>9.404999999999999</v>
       </c>
       <c r="F303" t="n">
-        <v>0.02035242</v>
+        <v>20.35242</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>12.075</v>
       </c>
       <c r="F304" t="n">
-        <v>0.026565</v>
+        <v>26.565</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>12.84</v>
       </c>
       <c r="F305" t="n">
-        <v>0.02835072</v>
+        <v>28.35072</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>14.655</v>
       </c>
       <c r="F306" t="n">
-        <v>0.03183066</v>
+        <v>31.83066</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>14.805</v>
       </c>
       <c r="F307" t="n">
-        <v>0.03215646</v>
+        <v>32.15646</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>13.47</v>
       </c>
       <c r="F308" t="n">
-        <v>0.02958012</v>
+        <v>29.58012</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>14.685</v>
       </c>
       <c r="F309" t="n">
-        <v>0.03189582</v>
+        <v>31.89582</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>16.425</v>
       </c>
       <c r="F310" t="n">
-        <v>0.03508380000000001</v>
+        <v>35.08380000000001</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>16.875</v>
       </c>
       <c r="F311" t="n">
-        <v>0.03611250000000001</v>
+        <v>36.11250000000001</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>17.415</v>
       </c>
       <c r="F312" t="n">
-        <v>0.03712878</v>
+        <v>37.12878</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>16.95</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0367476</v>
+        <v>36.7476</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>15.51</v>
       </c>
       <c r="F314" t="n">
-        <v>0.03387384</v>
+        <v>33.87384</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>15.225</v>
       </c>
       <c r="F315" t="n">
-        <v>0.0327642</v>
+        <v>32.7642</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>15.225</v>
       </c>
       <c r="F316" t="n">
-        <v>0.03337320000000001</v>
+        <v>33.37320000000001</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>16.23</v>
       </c>
       <c r="F317" t="n">
-        <v>0.03518664000000001</v>
+        <v>35.18664000000001</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>17.685</v>
       </c>
       <c r="F318" t="n">
-        <v>0.03827034</v>
+        <v>38.27034</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>13.56</v>
       </c>
       <c r="F319" t="n">
-        <v>0.02858448</v>
+        <v>28.58448</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>13.17</v>
       </c>
       <c r="F320" t="n">
-        <v>0.02881596</v>
+        <v>28.81596</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>13.17</v>
       </c>
       <c r="F321" t="n">
-        <v>0.02834184</v>
+        <v>28.34184</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>12.93</v>
       </c>
       <c r="F322" t="n">
-        <v>0.02756676</v>
+        <v>27.56676</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>12.765</v>
       </c>
       <c r="F323" t="n">
-        <v>0.02792982</v>
+        <v>27.92982</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>13.08</v>
       </c>
       <c r="F324" t="n">
-        <v>0.028776</v>
+        <v>28.776</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>13.335</v>
       </c>
       <c r="F325" t="n">
-        <v>0.0288036</v>
+        <v>28.8036</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>14.895</v>
       </c>
       <c r="F326" t="n">
-        <v>0.03193488</v>
+        <v>31.93488</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>16.14</v>
       </c>
       <c r="F327" t="n">
-        <v>0.03479784</v>
+        <v>34.79783999999999</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>14.94</v>
       </c>
       <c r="F328" t="n">
-        <v>0.03179232</v>
+        <v>31.79232</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>10.74</v>
       </c>
       <c r="F329" t="n">
-        <v>0.02302656</v>
+        <v>23.02656</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>10.215</v>
       </c>
       <c r="F330" t="n">
-        <v>0.02202354</v>
+        <v>22.02354</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>11.175</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0236016</v>
+        <v>23.6016</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>12.465</v>
       </c>
       <c r="F332" t="n">
-        <v>0.0269244</v>
+        <v>26.9244</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>14.88</v>
       </c>
       <c r="F333" t="n">
-        <v>0.03261696</v>
+        <v>32.61696</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>14.16</v>
       </c>
       <c r="F334" t="n">
-        <v>0.03018912</v>
+        <v>30.18912</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>13.26</v>
       </c>
       <c r="F335" t="n">
-        <v>0.02827032</v>
+        <v>28.27032</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>11.955</v>
       </c>
       <c r="F336" t="n">
-        <v>0.02587062</v>
+        <v>25.87062</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>11.97</v>
       </c>
       <c r="F337" t="n">
-        <v>0.02580732</v>
+        <v>25.80732</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>12.21</v>
       </c>
       <c r="F338" t="n">
-        <v>0.02617824</v>
+        <v>26.17824</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>12.615</v>
       </c>
       <c r="F339" t="n">
-        <v>0.02734932</v>
+        <v>27.34932</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>12.54</v>
       </c>
       <c r="F340" t="n">
-        <v>0.02688576</v>
+        <v>26.88576</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>15.27</v>
       </c>
       <c r="F341" t="n">
-        <v>0.03249456</v>
+        <v>32.49456</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>19.14</v>
       </c>
       <c r="F342" t="n">
-        <v>0.04180176</v>
+        <v>41.80176</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>21</v>
       </c>
       <c r="F343" t="n">
-        <v>0.04536</v>
+        <v>45.36</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>22.68</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0494424</v>
+        <v>49.4424</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>22.29</v>
       </c>
       <c r="F345" t="n">
-        <v>0.04805724</v>
+        <v>48.05724</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>22.095</v>
       </c>
       <c r="F346" t="n">
-        <v>0.04852062</v>
+        <v>48.52062</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>22.14</v>
       </c>
       <c r="F347" t="n">
-        <v>0.04764528000000001</v>
+        <v>47.64528000000001</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>21.87</v>
       </c>
       <c r="F348" t="n">
-        <v>0.0468018</v>
+        <v>46.8018</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>22.41</v>
       </c>
       <c r="F349" t="n">
-        <v>0.04822632</v>
+        <v>48.22632</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>23.415</v>
       </c>
       <c r="F350" t="n">
-        <v>0.05067006</v>
+        <v>50.67006</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>23.82</v>
       </c>
       <c r="F351" t="n">
-        <v>0.05173704</v>
+        <v>51.73704</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>22.56</v>
       </c>
       <c r="F352" t="n">
-        <v>0.04900032</v>
+        <v>49.00032</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>21.3</v>
       </c>
       <c r="F353" t="n">
-        <v>0.045582</v>
+        <v>45.582</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>20.565</v>
       </c>
       <c r="F354" t="n">
-        <v>0.0440091</v>
+        <v>44.0091</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>20.16</v>
       </c>
       <c r="F355" t="n">
-        <v>0.04346496</v>
+        <v>43.46496</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>20.235</v>
       </c>
       <c r="F356" t="n">
-        <v>0.04354572</v>
+        <v>43.54572</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>20.025</v>
       </c>
       <c r="F357" t="n">
-        <v>0.0434943</v>
+        <v>43.4943</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>18.75</v>
       </c>
       <c r="F358" t="n">
-        <v>0.04035</v>
+        <v>40.34999999999999</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>18.015</v>
       </c>
       <c r="F359" t="n">
-        <v>0.03898446000000001</v>
+        <v>38.98446000000001</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>17.655</v>
       </c>
       <c r="F360" t="n">
-        <v>0.03806418</v>
+        <v>38.06418</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>17.865</v>
       </c>
       <c r="F361" t="n">
-        <v>0.03873132</v>
+        <v>38.73132</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>18.495</v>
       </c>
       <c r="F362" t="n">
-        <v>0.04009716</v>
+        <v>40.09716</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>18.96</v>
       </c>
       <c r="F363" t="n">
-        <v>0.04080192000000001</v>
+        <v>40.80192000000001</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>20.385</v>
       </c>
       <c r="F364" t="n">
-        <v>0.04411314</v>
+        <v>44.11314</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>22.02</v>
       </c>
       <c r="F365" t="n">
-        <v>0.04747512</v>
+        <v>47.47512</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>22.68</v>
       </c>
       <c r="F366" t="n">
-        <v>0.04898880000000001</v>
+        <v>48.98880000000001</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>23.925</v>
       </c>
       <c r="F367" t="n">
-        <v>0.05177370000000001</v>
+        <v>51.77370000000001</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>24.585</v>
       </c>
       <c r="F368" t="n">
-        <v>0.05300526000000001</v>
+        <v>53.00526000000001</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>25.545</v>
       </c>
       <c r="F369" t="n">
-        <v>0.0556881</v>
+        <v>55.6881</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>27.99</v>
       </c>
       <c r="F370" t="n">
-        <v>0.0604584</v>
+        <v>60.4584</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>32.43</v>
       </c>
       <c r="F371" t="n">
-        <v>0.07017852000000001</v>
+        <v>70.17852000000001</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>31.92</v>
       </c>
       <c r="F372" t="n">
-        <v>0.06907488000000001</v>
+        <v>69.07488000000001</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>33.915</v>
       </c>
       <c r="F373" t="n">
-        <v>0.07366338</v>
+        <v>73.66338</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>34.245</v>
       </c>
       <c r="F374" t="n">
-        <v>0.07410617999999999</v>
+        <v>74.10617999999999</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>35.46</v>
       </c>
       <c r="F375" t="n">
-        <v>0.07687728000000002</v>
+        <v>76.87728000000001</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>35.805</v>
       </c>
       <c r="F376" t="n">
-        <v>0.07748202000000001</v>
+        <v>77.48202000000001</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>36.795</v>
       </c>
       <c r="F377" t="n">
-        <v>0.07991874000000002</v>
+        <v>79.91874000000001</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>35.655</v>
       </c>
       <c r="F378" t="n">
-        <v>0.07730004000000001</v>
+        <v>77.30004000000001</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>34.695</v>
       </c>
       <c r="F379" t="n">
-        <v>0.07535754</v>
+        <v>75.35754</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>31.92</v>
       </c>
       <c r="F380" t="n">
-        <v>0.06920256000000001</v>
+        <v>69.20256000000001</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>26.85</v>
       </c>
       <c r="F381" t="n">
-        <v>0.0583182</v>
+        <v>58.3182</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>21.18</v>
       </c>
       <c r="F382" t="n">
-        <v>0.04524048000000001</v>
+        <v>45.24048000000001</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>19.365</v>
       </c>
       <c r="F383" t="n">
-        <v>0.0418284</v>
+        <v>41.8284</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>18.885</v>
       </c>
       <c r="F384" t="n">
-        <v>0.0400362</v>
+        <v>40.0362</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>23.295</v>
       </c>
       <c r="F385" t="n">
-        <v>0.05087628</v>
+        <v>50.87628</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>25.41</v>
       </c>
       <c r="F386" t="n">
-        <v>0.05478396</v>
+        <v>54.78396</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>25.785</v>
       </c>
       <c r="F387" t="n">
-        <v>0.05579874</v>
+        <v>55.79874</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>24.39</v>
       </c>
       <c r="F388" t="n">
-        <v>0.05258484000000001</v>
+        <v>52.58484000000001</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>23.73</v>
       </c>
       <c r="F389" t="n">
-        <v>0.05125680000000001</v>
+        <v>51.25680000000001</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>21.96</v>
       </c>
       <c r="F390" t="n">
-        <v>0.04760928</v>
+        <v>47.60928</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>18.78</v>
       </c>
       <c r="F391" t="n">
-        <v>0.04109064</v>
+        <v>41.09064</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>18.6</v>
       </c>
       <c r="F392" t="n">
-        <v>0.04032479999999999</v>
+        <v>40.32479999999999</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>18.405</v>
       </c>
       <c r="F393" t="n">
-        <v>0.03975479999999999</v>
+        <v>39.7548</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>21.255</v>
       </c>
       <c r="F394" t="n">
-        <v>0.04625088</v>
+        <v>46.25088</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>27.09</v>
       </c>
       <c r="F395" t="n">
-        <v>0.05927292000000001</v>
+        <v>59.27292000000001</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>28.095</v>
       </c>
       <c r="F396" t="n">
-        <v>0.06090996000000001</v>
+        <v>60.90996000000001</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>27.48</v>
       </c>
       <c r="F397" t="n">
-        <v>0.05891712</v>
+        <v>58.91712</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>27.93</v>
       </c>
       <c r="F398" t="n">
-        <v>0.06044052</v>
+        <v>60.44052</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>30.15</v>
       </c>
       <c r="F399" t="n">
-        <v>0.06572700000000001</v>
+        <v>65.727</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>33.78</v>
       </c>
       <c r="F400" t="n">
-        <v>0.07282968000000001</v>
+        <v>72.82968000000001</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>38.085</v>
       </c>
       <c r="F401" t="n">
-        <v>0.08272062000000001</v>
+        <v>82.72062000000001</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>40.35</v>
       </c>
       <c r="F402" t="n">
-        <v>0.0876402</v>
+        <v>87.64020000000001</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>35.625</v>
       </c>
       <c r="F403" t="n">
-        <v>0.07752000000000001</v>
+        <v>77.52000000000001</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>32.91</v>
       </c>
       <c r="F404" t="n">
-        <v>0.07148051999999999</v>
+        <v>71.48052</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>35.145</v>
       </c>
       <c r="F405" t="n">
-        <v>0.0759132</v>
+        <v>75.9132</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>35.475</v>
       </c>
       <c r="F406" t="n">
-        <v>0.07705170000000001</v>
+        <v>77.05170000000001</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>34.44</v>
       </c>
       <c r="F407" t="n">
-        <v>0.07480368</v>
+        <v>74.80368</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>32.175</v>
       </c>
       <c r="F408" t="n">
-        <v>0.0701415</v>
+        <v>70.14149999999999</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>30.525</v>
       </c>
       <c r="F409" t="n">
-        <v>0.06581189999999999</v>
+        <v>65.81189999999999</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>30.24</v>
       </c>
       <c r="F410" t="n">
-        <v>0.06580224</v>
+        <v>65.80224</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>31.545</v>
       </c>
       <c r="F411" t="n">
-        <v>0.06851573999999999</v>
+        <v>68.51573999999999</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>27.45</v>
       </c>
       <c r="F412" t="n">
-        <v>0.0595116</v>
+        <v>59.5116</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>27</v>
       </c>
       <c r="F413" t="n">
-        <v>0.058536</v>
+        <v>58.53599999999999</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>27.3</v>
       </c>
       <c r="F414" t="n">
-        <v>0.05940480000000001</v>
+        <v>59.40480000000001</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>27.705</v>
       </c>
       <c r="F415" t="n">
-        <v>0.05984279999999999</v>
+        <v>59.84279999999999</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>27.15</v>
       </c>
       <c r="F416" t="n">
-        <v>0.058644</v>
+        <v>58.644</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>21.765</v>
       </c>
       <c r="F417" t="n">
-        <v>0.04718652</v>
+        <v>47.18652</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>23.55</v>
       </c>
       <c r="F418" t="n">
-        <v>0.0503028</v>
+        <v>50.3028</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>29.43</v>
       </c>
       <c r="F419" t="n">
-        <v>0.06333336000000001</v>
+        <v>63.33336000000001</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>33.15</v>
       </c>
       <c r="F420" t="n">
-        <v>0.07186920000000001</v>
+        <v>71.86920000000001</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>36.66</v>
       </c>
       <c r="F421" t="n">
-        <v>0.07962551999999999</v>
+        <v>79.62551999999999</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>36.225</v>
       </c>
       <c r="F422" t="n">
-        <v>0.07868070000000001</v>
+        <v>78.6807</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>35.505</v>
       </c>
       <c r="F423" t="n">
-        <v>0.07697484</v>
+        <v>76.97484</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>37.02</v>
       </c>
       <c r="F424" t="n">
-        <v>0.08174016000000001</v>
+        <v>81.74016</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>41.28</v>
       </c>
       <c r="F425" t="n">
-        <v>0.08982528000000001</v>
+        <v>89.82528000000001</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>41.025</v>
       </c>
       <c r="F426" t="n">
-        <v>0.0891063</v>
+        <v>89.1063</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>40.8</v>
       </c>
       <c r="F427" t="n">
-        <v>0.08861759999999999</v>
+        <v>88.6176</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>43.095</v>
       </c>
       <c r="F428" t="n">
-        <v>0.09394710000000001</v>
+        <v>93.94710000000001</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>41.55</v>
       </c>
       <c r="F429" t="n">
-        <v>0.0904128</v>
+        <v>90.4128</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>42.87</v>
       </c>
       <c r="F430" t="n">
-        <v>0.09328512000000001</v>
+        <v>93.28512000000001</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>39.96</v>
       </c>
       <c r="F431" t="n">
-        <v>0.08695296000000001</v>
+        <v>86.95296</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>39.51</v>
       </c>
       <c r="F432" t="n">
-        <v>0.08581572</v>
+        <v>85.81572</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>38.64</v>
       </c>
       <c r="F433" t="n">
-        <v>0.08392608000000001</v>
+        <v>83.92608000000001</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>37.545</v>
       </c>
       <c r="F434" t="n">
-        <v>0.08154774000000001</v>
+        <v>81.54774</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>37.965</v>
       </c>
       <c r="F435" t="n">
-        <v>0.08245998</v>
+        <v>82.45998</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>43.5</v>
       </c>
       <c r="F436" t="n">
-        <v>0.09500400000000001</v>
+        <v>95.004</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>22.83</v>
       </c>
       <c r="F437" t="n">
-        <v>0.04967808</v>
+        <v>49.67808</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>21.075</v>
       </c>
       <c r="F438" t="n">
-        <v>0.0450162</v>
+        <v>45.0162</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>20.325</v>
       </c>
       <c r="F439" t="n">
-        <v>0.0440646</v>
+        <v>44.06460000000001</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>20.085</v>
       </c>
       <c r="F440" t="n">
-        <v>0.04322292</v>
+        <v>43.22291999999999</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>19.275</v>
       </c>
       <c r="F441" t="n">
-        <v>0.0417882</v>
+        <v>41.7882</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>18.21</v>
       </c>
       <c r="F442" t="n">
-        <v>0.03955212</v>
+        <v>39.55212</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>17.94</v>
       </c>
       <c r="F443" t="n">
-        <v>0.0391092</v>
+        <v>39.10919999999999</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>18.135</v>
       </c>
       <c r="F444" t="n">
-        <v>0.0388089</v>
+        <v>38.8089</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>18.855</v>
       </c>
       <c r="F445" t="n">
-        <v>0.04080222000000001</v>
+        <v>40.80222000000001</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>19.905</v>
       </c>
       <c r="F446" t="n">
-        <v>0.04291518</v>
+        <v>42.91518</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>21.27</v>
       </c>
       <c r="F447" t="n">
-        <v>0.04602828</v>
+        <v>46.02828</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>22.575</v>
       </c>
       <c r="F448" t="n">
-        <v>0.049665</v>
+        <v>49.665</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>23.775</v>
       </c>
       <c r="F449" t="n">
-        <v>0.0518295</v>
+        <v>51.8295</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>25.545</v>
       </c>
       <c r="F450" t="n">
-        <v>0.05548374</v>
+        <v>55.48374</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>28.38</v>
       </c>
       <c r="F451" t="n">
-        <v>0.06175488</v>
+        <v>61.75488</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>29.94</v>
       </c>
       <c r="F452" t="n">
-        <v>0.06514944</v>
+        <v>65.14944</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>32.25</v>
       </c>
       <c r="F453" t="n">
-        <v>0.07004700000000001</v>
+        <v>70.04700000000001</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>34.335</v>
       </c>
       <c r="F454" t="n">
-        <v>0.07471296000000001</v>
+        <v>74.71296000000001</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>36.195</v>
       </c>
       <c r="F455" t="n">
-        <v>0.07861554000000001</v>
+        <v>78.61554000000001</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>39.9</v>
       </c>
       <c r="F456" t="n">
-        <v>0.0866628</v>
+        <v>86.6628</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>41.325</v>
       </c>
       <c r="F457" t="n">
-        <v>0.08992319999999999</v>
+        <v>89.92319999999999</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>41.295</v>
       </c>
       <c r="F458" t="n">
-        <v>0.09002310000000001</v>
+        <v>90.02310000000001</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>44.67</v>
       </c>
       <c r="F459" t="n">
-        <v>0.09720192000000001</v>
+        <v>97.20192000000002</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>46.89</v>
       </c>
       <c r="F460" t="n">
-        <v>0.10203264</v>
+        <v>102.03264</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>49.23</v>
       </c>
       <c r="F461" t="n">
-        <v>0.10771524</v>
+        <v>107.71524</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>50.145</v>
       </c>
       <c r="F462" t="n">
-        <v>0.1093161</v>
+        <v>109.3161</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>52.2</v>
       </c>
       <c r="F463" t="n">
-        <v>0.1140048</v>
+        <v>114.0048</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>56.43</v>
       </c>
       <c r="F464" t="n">
-        <v>0.12346884</v>
+        <v>123.46884</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>59.355</v>
       </c>
       <c r="F465" t="n">
-        <v>0.13200552</v>
+        <v>132.00552</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>60.03</v>
       </c>
       <c r="F466" t="n">
-        <v>0.13158576</v>
+        <v>131.58576</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>64.66499999999999</v>
       </c>
       <c r="F467" t="n">
-        <v>0.142263</v>
+        <v>142.263</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>66.14999999999999</v>
       </c>
       <c r="F468" t="n">
-        <v>0.144207</v>
+        <v>144.207</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>60.57</v>
       </c>
       <c r="F469" t="n">
-        <v>0.1320426</v>
+        <v>132.0426</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>73.92</v>
       </c>
       <c r="F470" t="n">
-        <v>0.16321536</v>
+        <v>163.21536</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>74.58</v>
       </c>
       <c r="F471" t="n">
-        <v>0.16437432</v>
+        <v>164.37432</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>43.005</v>
       </c>
       <c r="F472" t="n">
-        <v>0.09392291999999999</v>
+        <v>93.92291999999999</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>47.895</v>
       </c>
       <c r="F473" t="n">
-        <v>0.10460268</v>
+        <v>104.60268</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>90.09</v>
       </c>
       <c r="F474" t="n">
-        <v>0.19927908</v>
+        <v>199.27908</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>67.86</v>
       </c>
       <c r="F475" t="n">
-        <v>0.149292</v>
+        <v>149.292</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>34.545</v>
       </c>
       <c r="F476" t="n">
-        <v>0.07461720000000001</v>
+        <v>74.61720000000001</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>34.245</v>
       </c>
       <c r="F477" t="n">
-        <v>0.07451712000000001</v>
+        <v>74.51712000000001</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>53.25</v>
       </c>
       <c r="F478" t="n">
-        <v>0.116511</v>
+        <v>116.511</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>92.86499999999999</v>
       </c>
       <c r="F479" t="n">
-        <v>0.20541738</v>
+        <v>205.41738</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>77.97</v>
       </c>
       <c r="F480" t="n">
-        <v>0.171534</v>
+        <v>171.534</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>43.305</v>
       </c>
       <c r="F481" t="n">
-        <v>0.09405846000000001</v>
+        <v>94.05846000000001</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>31.74</v>
       </c>
       <c r="F482" t="n">
-        <v>0.06893927999999999</v>
+        <v>68.93928</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>37.935</v>
       </c>
       <c r="F483" t="n">
-        <v>0.08254656</v>
+        <v>82.54656</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>70.815</v>
       </c>
       <c r="F484" t="n">
-        <v>0.155793</v>
+        <v>155.793</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>32.67</v>
       </c>
       <c r="F485" t="n">
-        <v>0.07056720000000001</v>
+        <v>70.56720000000001</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>30.87</v>
       </c>
       <c r="F486" t="n">
-        <v>0.06692616</v>
+        <v>66.92616</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>39.915</v>
       </c>
       <c r="F487" t="n">
-        <v>0.08653572</v>
+        <v>86.53572</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>67.845</v>
       </c>
       <c r="F488" t="n">
-        <v>0.14871624</v>
+        <v>148.71624</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>101.895</v>
       </c>
       <c r="F489" t="n">
-        <v>0.22579932</v>
+        <v>225.79932</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>96.09</v>
       </c>
       <c r="F490" t="n">
-        <v>0.2133198</v>
+        <v>213.3198</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>50.61</v>
       </c>
       <c r="F491" t="n">
-        <v>0.11053224</v>
+        <v>110.53224</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>26.805</v>
       </c>
       <c r="F492" t="n">
-        <v>0.05779158</v>
+        <v>57.79158</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>45.525</v>
       </c>
       <c r="F493" t="n">
-        <v>0.09906240000000001</v>
+        <v>99.06240000000001</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>65.97</v>
       </c>
       <c r="F494" t="n">
-        <v>0.14434236</v>
+        <v>144.34236</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>36.225</v>
       </c>
       <c r="F495" t="n">
-        <v>0.07868070000000001</v>
+        <v>78.6807</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>32.325</v>
       </c>
       <c r="F496" t="n">
-        <v>0.07008059999999999</v>
+        <v>70.08059999999999</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>66.105</v>
       </c>
       <c r="F497" t="n">
-        <v>0.14516658</v>
+        <v>145.16658</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>82.065</v>
       </c>
       <c r="F498" t="n">
-        <v>0.18152778</v>
+        <v>181.52778</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>54.105</v>
       </c>
       <c r="F499" t="n">
-        <v>0.11838174</v>
+        <v>118.38174</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>76.89</v>
       </c>
       <c r="F500" t="n">
-        <v>0.16946556</v>
+        <v>169.46556</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>68.02499999999999</v>
       </c>
       <c r="F501" t="n">
-        <v>0.1491108</v>
+        <v>149.1108</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>92.48999999999999</v>
       </c>
       <c r="F502" t="n">
-        <v>0.20421792</v>
+        <v>204.21792</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>91.24499999999999</v>
       </c>
       <c r="F503" t="n">
-        <v>0.20183394</v>
+        <v>201.83394</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>88.005</v>
       </c>
       <c r="F504" t="n">
-        <v>0.19431504</v>
+        <v>194.31504</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>84.06</v>
       </c>
       <c r="F505" t="n">
-        <v>0.18594072</v>
+        <v>185.94072</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>82.67999999999999</v>
       </c>
       <c r="F506" t="n">
-        <v>0.18255744</v>
+        <v>182.55744</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>80.895</v>
       </c>
       <c r="F507" t="n">
-        <v>0.17829258</v>
+        <v>178.29258</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>78.94499999999999</v>
       </c>
       <c r="F508" t="n">
-        <v>0.17431056</v>
+        <v>174.31056</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>78.81</v>
       </c>
       <c r="F509" t="n">
-        <v>0.173382</v>
+        <v>173.382</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>77.81999999999999</v>
       </c>
       <c r="F510" t="n">
-        <v>0.17182656</v>
+        <v>171.82656</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>78.435</v>
       </c>
       <c r="F511" t="n">
-        <v>0.17318448</v>
+        <v>173.18448</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>77.655</v>
       </c>
       <c r="F512" t="n">
-        <v>0.170841</v>
+        <v>170.841</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>76.56</v>
       </c>
       <c r="F513" t="n">
-        <v>0.16751328</v>
+        <v>167.51328</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>73.86</v>
       </c>
       <c r="F514" t="n">
-        <v>0.16308288</v>
+        <v>163.08288</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>74.655</v>
       </c>
       <c r="F515" t="n">
-        <v>0.16453962</v>
+        <v>164.53962</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>75.86999999999999</v>
       </c>
       <c r="F516" t="n">
-        <v>0.16752096</v>
+        <v>167.52096</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>75.285</v>
       </c>
       <c r="F517" t="n">
-        <v>0.16532586</v>
+        <v>165.32586</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>74.955</v>
       </c>
       <c r="F518" t="n">
-        <v>0.16430136</v>
+        <v>164.30136</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>74.80499999999999</v>
       </c>
       <c r="F519" t="n">
-        <v>0.164571</v>
+        <v>164.571</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>74.45999999999999</v>
       </c>
       <c r="F520" t="n">
-        <v>0.16410984</v>
+        <v>164.10984</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>73.23</v>
       </c>
       <c r="F521" t="n">
-        <v>0.16081308</v>
+        <v>160.81308</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>73.845</v>
       </c>
       <c r="F522" t="n">
-        <v>0.162459</v>
+        <v>162.459</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>74.58</v>
       </c>
       <c r="F523" t="n">
-        <v>0.16497096</v>
+        <v>164.97096</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>73.95</v>
       </c>
       <c r="F524" t="n">
-        <v>0.16269</v>
+        <v>162.69</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>73.935</v>
       </c>
       <c r="F525" t="n">
-        <v>0.162657</v>
+        <v>162.657</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>72.36</v>
       </c>
       <c r="F526" t="n">
-        <v>0.159192</v>
+        <v>159.192</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>71.31</v>
       </c>
       <c r="F527" t="n">
-        <v>0.15745248</v>
+        <v>157.45248</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>70.41</v>
       </c>
       <c r="F528" t="n">
-        <v>0.15462036</v>
+        <v>154.62036</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>69.39</v>
       </c>
       <c r="F529" t="n">
-        <v>0.15293556</v>
+        <v>152.93556</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>68.03999999999999</v>
       </c>
       <c r="F530" t="n">
-        <v>0.14996016</v>
+        <v>149.96016</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>69.98999999999999</v>
       </c>
       <c r="F531" t="n">
-        <v>0.1567776</v>
+        <v>156.7776</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>69.53999999999999</v>
       </c>
       <c r="F532" t="n">
-        <v>0.152988</v>
+        <v>152.988</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>70.575</v>
       </c>
       <c r="F533" t="n">
-        <v>0.1541358</v>
+        <v>154.1358</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>71.58</v>
       </c>
       <c r="F534" t="n">
-        <v>0.15718968</v>
+        <v>157.18968</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>72.22499999999999</v>
       </c>
       <c r="F535" t="n">
-        <v>0.1591839</v>
+        <v>159.1839</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>72.735</v>
       </c>
       <c r="F536" t="n">
-        <v>0.160017</v>
+        <v>160.017</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>74.47499999999999</v>
       </c>
       <c r="F537" t="n">
-        <v>0.1641429</v>
+        <v>164.1429</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>74.80499999999999</v>
       </c>
       <c r="F538" t="n">
-        <v>0.16397256</v>
+        <v>163.97256</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>72.91499999999999</v>
       </c>
       <c r="F539" t="n">
-        <v>0.16070466</v>
+        <v>160.70466</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>70.34999999999999</v>
       </c>
       <c r="F540" t="n">
-        <v>0.1542072</v>
+        <v>154.2072</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>69.285</v>
       </c>
       <c r="F541" t="n">
-        <v>0.15187272</v>
+        <v>151.87272</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>69.465</v>
       </c>
       <c r="F542" t="n">
-        <v>0.15226728</v>
+        <v>152.26728</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>68.13</v>
       </c>
       <c r="F543" t="n">
-        <v>0.14934096</v>
+        <v>149.34096</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>68.08499999999999</v>
       </c>
       <c r="F544" t="n">
-        <v>0.14951466</v>
+        <v>149.51466</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>67.965</v>
       </c>
       <c r="F545" t="n">
-        <v>0.149523</v>
+        <v>149.523</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>67.065</v>
       </c>
       <c r="F546" t="n">
-        <v>0.14700648</v>
+        <v>147.00648</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>66.63</v>
       </c>
       <c r="F547" t="n">
-        <v>0.14551992</v>
+        <v>145.51992</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>65.86499999999999</v>
       </c>
       <c r="F548" t="n">
-        <v>0.14384916</v>
+        <v>143.84916</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>65.235</v>
       </c>
       <c r="F549" t="n">
-        <v>0.14299512</v>
+        <v>142.99512</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>57.945</v>
       </c>
       <c r="F550" t="n">
-        <v>0.12701544</v>
+        <v>127.01544</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>58.36499999999999</v>
       </c>
       <c r="F551" t="n">
-        <v>0.12676878</v>
+        <v>126.76878</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>57.3</v>
       </c>
       <c r="F552" t="n">
-        <v>0.124914</v>
+        <v>124.914</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>57.945</v>
       </c>
       <c r="F553" t="n">
-        <v>0.12655188</v>
+        <v>126.55188</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>56.445</v>
       </c>
       <c r="F554" t="n">
-        <v>0.1230501</v>
+        <v>123.0501</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>52.56</v>
       </c>
       <c r="F555" t="n">
-        <v>0.11479104</v>
+        <v>114.79104</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>50.94</v>
       </c>
       <c r="F556" t="n">
-        <v>0.1110492</v>
+        <v>111.0492</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>48.84</v>
       </c>
       <c r="F557" t="n">
-        <v>0.10666656</v>
+        <v>106.66656</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>48</v>
       </c>
       <c r="F558" t="n">
-        <v>0.104832</v>
+        <v>104.832</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>45.33</v>
       </c>
       <c r="F559" t="n">
-        <v>0.09863808</v>
+        <v>98.63808</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>43.02</v>
       </c>
       <c r="F560" t="n">
-        <v>0.09343944</v>
+        <v>93.43944</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>42.03</v>
       </c>
       <c r="F561" t="n">
-        <v>0.09145728000000002</v>
+        <v>91.45728000000001</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>42.045</v>
       </c>
       <c r="F562" t="n">
-        <v>0.09165810000000001</v>
+        <v>91.6581</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>43.38</v>
       </c>
       <c r="F563" t="n">
-        <v>0.09439488</v>
+        <v>94.39488</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>43.155</v>
       </c>
       <c r="F564" t="n">
-        <v>0.09407790000000002</v>
+        <v>94.07790000000001</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>44.745</v>
       </c>
       <c r="F565" t="n">
-        <v>0.09718613999999999</v>
+        <v>97.18613999999999</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>47.28</v>
       </c>
       <c r="F566" t="n">
-        <v>0.10325952</v>
+        <v>103.25952</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>73.67999999999999</v>
       </c>
       <c r="F567" t="n">
-        <v>0.16268544</v>
+        <v>162.68544</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>181.875</v>
       </c>
       <c r="F568" t="n">
-        <v>0.4154025</v>
+        <v>415.4025</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>178.38</v>
       </c>
       <c r="F569" t="n">
-        <v>0.4067064</v>
+        <v>406.7064</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>173.94</v>
       </c>
       <c r="F570" t="n">
-        <v>0.39519168</v>
+        <v>395.19168</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>170.7</v>
       </c>
       <c r="F571" t="n">
-        <v>0.3885132000000001</v>
+        <v>388.5132000000001</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>163.905</v>
       </c>
       <c r="F572" t="n">
-        <v>0.3717365400000001</v>
+        <v>371.7365400000001</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>163.83</v>
       </c>
       <c r="F573" t="n">
-        <v>0.37156644</v>
+        <v>371.56644</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>161.31</v>
       </c>
       <c r="F574" t="n">
-        <v>0.36520584</v>
+        <v>365.20584</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>163.875</v>
       </c>
       <c r="F575" t="n">
-        <v>0.3716685000000001</v>
+        <v>371.6685000000001</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>163.83</v>
       </c>
       <c r="F576" t="n">
-        <v>0.37156644</v>
+        <v>371.56644</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>160.485</v>
       </c>
       <c r="F577" t="n">
-        <v>0.36397998</v>
+        <v>363.97998</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>156</v>
       </c>
       <c r="F578" t="n">
-        <v>0.3531840000000001</v>
+        <v>353.1840000000001</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>153.075</v>
       </c>
       <c r="F579" t="n">
-        <v>0.3459495</v>
+        <v>345.9495</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11963,7 @@
         <v>151.155</v>
       </c>
       <c r="F580" t="n">
-        <v>0.3416103</v>
+        <v>341.6103</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11983,7 @@
         <v>152.535</v>
       </c>
       <c r="F581" t="n">
-        <v>0.3447291</v>
+        <v>344.7291</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12003,7 @@
         <v>148.35</v>
       </c>
       <c r="F582" t="n">
-        <v>0.3346776</v>
+        <v>334.6776</v>
       </c>
     </row>
     <row r="583">
@@ -12023,7 +12023,7 @@
         <v>149.85</v>
       </c>
       <c r="F583" t="n">
-        <v>0.3380616</v>
+        <v>338.0616</v>
       </c>
     </row>
     <row r="584">
@@ -12043,7 +12043,7 @@
         <v>154.215</v>
       </c>
       <c r="F584" t="n">
-        <v>0.3485259000000001</v>
+        <v>348.5259000000001</v>
       </c>
     </row>
     <row r="585">
@@ -12063,7 +12063,7 @@
         <v>152.46</v>
       </c>
       <c r="F585" t="n">
-        <v>0.34394976</v>
+        <v>343.94976</v>
       </c>
     </row>
     <row r="586">
@@ -12083,7 +12083,7 @@
         <v>151.47</v>
       </c>
       <c r="F586" t="n">
-        <v>0.3423222</v>
+        <v>342.3222</v>
       </c>
     </row>
     <row r="587">
@@ -12103,7 +12103,7 @@
         <v>148.89</v>
       </c>
       <c r="F587" t="n">
-        <v>0.33589584</v>
+        <v>335.89584</v>
       </c>
     </row>
     <row r="588">
@@ -12123,7 +12123,7 @@
         <v>143.46</v>
       </c>
       <c r="F588" t="n">
-        <v>0.32307192</v>
+        <v>323.07192</v>
       </c>
     </row>
     <row r="589">
@@ -12143,7 +12143,7 @@
         <v>145.68</v>
       </c>
       <c r="F589" t="n">
-        <v>0.32807136</v>
+        <v>328.07136</v>
       </c>
     </row>
     <row r="590">
@@ -12163,7 +12163,7 @@
         <v>148.38</v>
       </c>
       <c r="F590" t="n">
-        <v>0.33474528</v>
+        <v>334.74528</v>
       </c>
     </row>
     <row r="591">
@@ -12183,7 +12183,7 @@
         <v>151.17</v>
       </c>
       <c r="F591" t="n">
-        <v>0.3416442</v>
+        <v>341.6442</v>
       </c>
     </row>
     <row r="592">
@@ -12203,7 +12203,7 @@
         <v>152.13</v>
       </c>
       <c r="F592" t="n">
-        <v>0.3438138</v>
+        <v>343.8138</v>
       </c>
     </row>
     <row r="593">
@@ -12223,7 +12223,7 @@
         <v>150.72</v>
       </c>
       <c r="F593" t="n">
-        <v>0.3406272</v>
+        <v>340.6272</v>
       </c>
     </row>
     <row r="594">
@@ -12243,7 +12243,7 @@
         <v>150.03</v>
       </c>
       <c r="F594" t="n">
-        <v>0.33846768</v>
+        <v>338.46768</v>
       </c>
     </row>
     <row r="595">
@@ -12263,7 +12263,7 @@
         <v>152.01</v>
       </c>
       <c r="F595" t="n">
-        <v>0.3435426</v>
+        <v>343.5426</v>
       </c>
     </row>
     <row r="596">
@@ -12283,7 +12283,7 @@
         <v>150.3</v>
       </c>
       <c r="F596" t="n">
-        <v>0.339678</v>
+        <v>339.678</v>
       </c>
     </row>
     <row r="597">
@@ -12303,7 +12303,7 @@
         <v>148.23</v>
       </c>
       <c r="F597" t="n">
-        <v>0.33440688</v>
+        <v>334.40688</v>
       </c>
     </row>
     <row r="598">
@@ -12323,7 +12323,7 @@
         <v>146.685</v>
       </c>
       <c r="F598" t="n">
-        <v>0.3309213600000001</v>
+        <v>330.9213600000001</v>
       </c>
     </row>
     <row r="599">
@@ -12343,7 +12343,7 @@
         <v>148.92</v>
       </c>
       <c r="F599" t="n">
-        <v>0.33596352</v>
+        <v>335.96352</v>
       </c>
     </row>
     <row r="600">
@@ -12363,7 +12363,7 @@
         <v>142.08</v>
       </c>
       <c r="F600" t="n">
-        <v>0.31996416</v>
+        <v>319.96416</v>
       </c>
     </row>
     <row r="601">
@@ -12383,7 +12383,7 @@
         <v>145.545</v>
       </c>
       <c r="F601" t="n">
-        <v>0.32834952</v>
+        <v>328.34952</v>
       </c>
     </row>
     <row r="602">
@@ -12403,7 +12403,7 @@
         <v>144.315</v>
       </c>
       <c r="F602" t="n">
-        <v>0.32499738</v>
+        <v>324.99738</v>
       </c>
     </row>
     <row r="603">
@@ -12423,7 +12423,7 @@
         <v>143.22</v>
       </c>
       <c r="F603" t="n">
-        <v>0.3225314400000001</v>
+        <v>322.5314400000001</v>
       </c>
     </row>
     <row r="604">
@@ -12443,7 +12443,7 @@
         <v>142.65</v>
       </c>
       <c r="F604" t="n">
-        <v>0.3212478</v>
+        <v>321.2478</v>
       </c>
     </row>
     <row r="605">
@@ -12463,7 +12463,7 @@
         <v>141.615</v>
       </c>
       <c r="F605" t="n">
-        <v>0.31835052</v>
+        <v>318.35052</v>
       </c>
     </row>
     <row r="606">
@@ -12483,7 +12483,7 @@
         <v>140.79</v>
       </c>
       <c r="F606" t="n">
-        <v>0.31705908</v>
+        <v>317.05908</v>
       </c>
     </row>
     <row r="607">
@@ -12503,7 +12503,7 @@
         <v>138.465</v>
       </c>
       <c r="F607" t="n">
-        <v>0.31182318</v>
+        <v>311.82318</v>
       </c>
     </row>
     <row r="608">
@@ -12523,7 +12523,7 @@
         <v>136.635</v>
       </c>
       <c r="F608" t="n">
-        <v>0.3060624</v>
+        <v>306.0624</v>
       </c>
     </row>
     <row r="609">
@@ -12543,7 +12543,7 @@
         <v>137.565</v>
       </c>
       <c r="F609" t="n">
-        <v>0.30924612</v>
+        <v>309.24612</v>
       </c>
     </row>
     <row r="610">
@@ -12563,7 +12563,7 @@
         <v>136.635</v>
       </c>
       <c r="F610" t="n">
-        <v>0.30715548</v>
+        <v>307.15548</v>
       </c>
     </row>
     <row r="611">
@@ -12583,7 +12583,7 @@
         <v>133.74</v>
       </c>
       <c r="F611" t="n">
-        <v>0.30011256</v>
+        <v>300.11256</v>
       </c>
     </row>
     <row r="612">
@@ -12603,7 +12603,7 @@
         <v>135.33</v>
       </c>
       <c r="F612" t="n">
-        <v>0.30422184</v>
+        <v>304.22184</v>
       </c>
     </row>
     <row r="613">
@@ -12623,7 +12623,7 @@
         <v>136.425</v>
       </c>
       <c r="F613" t="n">
-        <v>0.3061377</v>
+        <v>306.1377</v>
       </c>
     </row>
     <row r="614">
@@ -12643,7 +12643,7 @@
         <v>132.06</v>
       </c>
       <c r="F614" t="n">
-        <v>0.29634264</v>
+        <v>296.34264</v>
       </c>
     </row>
     <row r="615">
@@ -12663,7 +12663,7 @@
         <v>133.95</v>
       </c>
       <c r="F615" t="n">
-        <v>0.3005838</v>
+        <v>300.5838</v>
       </c>
     </row>
     <row r="616">
@@ -12683,7 +12683,7 @@
         <v>130.53</v>
       </c>
       <c r="F616" t="n">
-        <v>0.2923872</v>
+        <v>292.3872</v>
       </c>
     </row>
     <row r="617">
@@ -12703,7 +12703,7 @@
         <v>128.055</v>
       </c>
       <c r="F617" t="n">
-        <v>0.28735542</v>
+        <v>287.35542</v>
       </c>
     </row>
     <row r="618">
@@ -12723,7 +12723,7 @@
         <v>127.665</v>
       </c>
       <c r="F618" t="n">
-        <v>0.28545894</v>
+        <v>285.45894</v>
       </c>
     </row>
     <row r="619">
@@ -12743,7 +12743,7 @@
         <v>115.53</v>
       </c>
       <c r="F619" t="n">
-        <v>0.25832508</v>
+        <v>258.32508</v>
       </c>
     </row>
     <row r="620">
@@ -12763,7 +12763,7 @@
         <v>117.375</v>
       </c>
       <c r="F620" t="n">
-        <v>0.2619810000000001</v>
+        <v>261.9810000000001</v>
       </c>
     </row>
     <row r="621">
@@ -12783,7 +12783,7 @@
         <v>123.45</v>
       </c>
       <c r="F621" t="n">
-        <v>0.276528</v>
+        <v>276.528</v>
       </c>
     </row>
     <row r="622">
@@ -12803,7 +12803,7 @@
         <v>126.555</v>
       </c>
       <c r="F622" t="n">
-        <v>0.28398942</v>
+        <v>283.98942</v>
       </c>
     </row>
     <row r="623">
@@ -12823,7 +12823,7 @@
         <v>123.495</v>
       </c>
       <c r="F623" t="n">
-        <v>0.27613482</v>
+        <v>276.13482</v>
       </c>
     </row>
     <row r="624">
@@ -12843,7 +12843,7 @@
         <v>121.59</v>
       </c>
       <c r="F624" t="n">
-        <v>0.27187524</v>
+        <v>271.87524</v>
       </c>
     </row>
     <row r="625">
@@ -12863,7 +12863,7 @@
         <v>122.955</v>
       </c>
       <c r="F625" t="n">
-        <v>0.2749273800000001</v>
+        <v>274.9273800000001</v>
       </c>
     </row>
     <row r="626">
@@ -12883,7 +12883,7 @@
         <v>123.105</v>
       </c>
       <c r="F626" t="n">
-        <v>0.27477036</v>
+        <v>274.77036</v>
       </c>
     </row>
     <row r="627">
@@ -12903,7 +12903,7 @@
         <v>122.895</v>
       </c>
       <c r="F627" t="n">
-        <v>0.27479322</v>
+        <v>274.79322</v>
       </c>
     </row>
     <row r="628">
@@ -12923,7 +12923,7 @@
         <v>122.925</v>
       </c>
       <c r="F628" t="n">
-        <v>0.2743686</v>
+        <v>274.3686</v>
       </c>
     </row>
     <row r="629">
@@ -12943,7 +12943,7 @@
         <v>122.19</v>
       </c>
       <c r="F629" t="n">
-        <v>0.27272808</v>
+        <v>272.72808</v>
       </c>
     </row>
     <row r="630">
@@ -12963,7 +12963,7 @@
         <v>120.42</v>
       </c>
       <c r="F630" t="n">
-        <v>0.2697408000000001</v>
+        <v>269.7408000000001</v>
       </c>
     </row>
     <row r="631">
@@ -12983,7 +12983,7 @@
         <v>119.82</v>
       </c>
       <c r="F631" t="n">
-        <v>0.26743824</v>
+        <v>267.43824</v>
       </c>
     </row>
     <row r="632">
@@ -13003,7 +13003,7 @@
         <v>119.37</v>
       </c>
       <c r="F632" t="n">
-        <v>0.26595636</v>
+        <v>265.95636</v>
       </c>
     </row>
     <row r="633">
@@ -13023,7 +13023,7 @@
         <v>119.13</v>
       </c>
       <c r="F633" t="n">
-        <v>0.26637468</v>
+        <v>266.37468</v>
       </c>
     </row>
     <row r="634">
@@ -13043,7 +13043,7 @@
         <v>118.47</v>
       </c>
       <c r="F634" t="n">
-        <v>0.26442504</v>
+        <v>264.42504</v>
       </c>
     </row>
     <row r="635">
@@ -13063,7 +13063,7 @@
         <v>117.765</v>
       </c>
       <c r="F635" t="n">
-        <v>0.26238042</v>
+        <v>262.38042</v>
       </c>
     </row>
     <row r="636">
@@ -13083,7 +13083,7 @@
         <v>116.85</v>
       </c>
       <c r="F636" t="n">
-        <v>0.2612766</v>
+        <v>261.2766</v>
       </c>
     </row>
     <row r="637">
@@ -13103,7 +13103,7 @@
         <v>115.8</v>
       </c>
       <c r="F637" t="n">
-        <v>0.2575392</v>
+        <v>257.5392000000001</v>
       </c>
     </row>
     <row r="638">
@@ -13123,7 +13123,7 @@
         <v>114.81</v>
       </c>
       <c r="F638" t="n">
-        <v>0.2557966800000001</v>
+        <v>255.7966800000001</v>
       </c>
     </row>
     <row r="639">
@@ -13143,7 +13143,7 @@
         <v>113.94</v>
       </c>
       <c r="F639" t="n">
-        <v>0.25385832</v>
+        <v>253.85832</v>
       </c>
     </row>
     <row r="640">
@@ -13163,7 +13163,7 @@
         <v>111.9</v>
       </c>
       <c r="F640" t="n">
-        <v>0.2488656</v>
+        <v>248.8656</v>
       </c>
     </row>
     <row r="641">
@@ -13183,7 +13183,7 @@
         <v>110.205</v>
       </c>
       <c r="F641" t="n">
-        <v>0.24597756</v>
+        <v>245.97756</v>
       </c>
     </row>
     <row r="642">
@@ -13203,7 +13203,7 @@
         <v>108.885</v>
       </c>
       <c r="F642" t="n">
-        <v>0.24216024</v>
+        <v>242.16024</v>
       </c>
     </row>
     <row r="643">
@@ -13223,7 +13223,7 @@
         <v>108.3</v>
       </c>
       <c r="F643" t="n">
-        <v>0.2417256</v>
+        <v>241.7256</v>
       </c>
     </row>
     <row r="644">
@@ -13243,7 +13243,7 @@
         <v>107.58</v>
       </c>
       <c r="F644" t="n">
-        <v>0.23925792</v>
+        <v>239.25792</v>
       </c>
     </row>
     <row r="645">
@@ -13263,7 +13263,7 @@
         <v>106.605</v>
       </c>
       <c r="F645" t="n">
-        <v>0.23708952</v>
+        <v>237.08952</v>
       </c>
     </row>
     <row r="646">
@@ -13283,7 +13283,7 @@
         <v>105.48</v>
       </c>
       <c r="F646" t="n">
-        <v>0.23500944</v>
+        <v>235.00944</v>
       </c>
     </row>
     <row r="647">
@@ -13303,7 +13303,7 @@
         <v>104.955</v>
       </c>
       <c r="F647" t="n">
-        <v>0.23341992</v>
+        <v>233.41992</v>
       </c>
     </row>
     <row r="648">
@@ -13323,7 +13323,7 @@
         <v>103.725</v>
       </c>
       <c r="F648" t="n">
-        <v>0.2306844</v>
+        <v>230.6844</v>
       </c>
     </row>
     <row r="649">
@@ -13343,7 +13343,7 @@
         <v>103.05</v>
       </c>
       <c r="F649" t="n">
-        <v>0.2295954</v>
+        <v>229.5954</v>
       </c>
     </row>
     <row r="650">
@@ -13363,7 +13363,7 @@
         <v>102.42</v>
       </c>
       <c r="F650" t="n">
-        <v>0.22778208</v>
+        <v>227.78208</v>
       </c>
     </row>
     <row r="651">
@@ -13383,7 +13383,7 @@
         <v>101.82</v>
       </c>
       <c r="F651" t="n">
-        <v>0.2260404</v>
+        <v>226.0404</v>
       </c>
     </row>
     <row r="652">
@@ -13403,7 +13403,7 @@
         <v>101.22</v>
       </c>
       <c r="F652" t="n">
-        <v>0.22511328</v>
+        <v>225.11328</v>
       </c>
     </row>
     <row r="653">
@@ -13423,7 +13423,7 @@
         <v>100.005</v>
       </c>
       <c r="F653" t="n">
-        <v>0.2220111</v>
+        <v>222.0111</v>
       </c>
     </row>
     <row r="654">
@@ -13443,7 +13443,7 @@
         <v>99.36</v>
       </c>
       <c r="F654" t="n">
-        <v>0.2205792</v>
+        <v>220.5792</v>
       </c>
     </row>
     <row r="655">
@@ -13463,7 +13463,7 @@
         <v>98.80499999999999</v>
       </c>
       <c r="F655" t="n">
-        <v>0.2193471</v>
+        <v>219.3471</v>
       </c>
     </row>
     <row r="656">
@@ -13483,7 +13483,7 @@
         <v>98.19</v>
       </c>
       <c r="F656" t="n">
-        <v>0.21680352</v>
+        <v>216.80352</v>
       </c>
     </row>
     <row r="657">
@@ -13503,7 +13503,7 @@
         <v>96.95999999999999</v>
       </c>
       <c r="F657" t="n">
-        <v>0.2152512</v>
+        <v>215.2512</v>
       </c>
     </row>
     <row r="658">
@@ -13523,7 +13523,7 @@
         <v>95.06999999999999</v>
       </c>
       <c r="F658" t="n">
-        <v>0.21067512</v>
+        <v>210.67512</v>
       </c>
     </row>
     <row r="659">
@@ -13543,7 +13543,7 @@
         <v>95.08499999999999</v>
       </c>
       <c r="F659" t="n">
-        <v>0.21070836</v>
+        <v>210.70836</v>
       </c>
     </row>
     <row r="660">
@@ -13563,7 +13563,7 @@
         <v>94.53</v>
       </c>
       <c r="F660" t="n">
-        <v>0.20947848</v>
+        <v>209.47848</v>
       </c>
     </row>
     <row r="661">
@@ -13583,7 +13583,7 @@
         <v>93.16499999999999</v>
       </c>
       <c r="F661" t="n">
-        <v>0.20645364</v>
+        <v>206.45364</v>
       </c>
     </row>
     <row r="662">
@@ -13603,7 +13603,7 @@
         <v>92.61</v>
       </c>
       <c r="F662" t="n">
-        <v>0.20485332</v>
+        <v>204.85332</v>
       </c>
     </row>
     <row r="663">
@@ -13623,7 +13623,7 @@
         <v>91.44</v>
       </c>
       <c r="F663" t="n">
-        <v>0.20226528</v>
+        <v>202.26528</v>
       </c>
     </row>
     <row r="664">
@@ -13643,7 +13643,7 @@
         <v>90.85499999999999</v>
       </c>
       <c r="F664" t="n">
-        <v>0.20097126</v>
+        <v>200.97126</v>
       </c>
     </row>
     <row r="665">
@@ -13663,7 +13663,7 @@
         <v>90.405</v>
       </c>
       <c r="F665" t="n">
-        <v>0.19997586</v>
+        <v>199.97586</v>
       </c>
     </row>
     <row r="666">
@@ -13683,7 +13683,7 @@
         <v>89.78999999999999</v>
       </c>
       <c r="F666" t="n">
-        <v>0.19861548</v>
+        <v>198.61548</v>
       </c>
     </row>
     <row r="667">
@@ -13703,7 +13703,7 @@
         <v>85.95</v>
       </c>
       <c r="F667" t="n">
-        <v>0.1897776</v>
+        <v>189.7776</v>
       </c>
     </row>
     <row r="668">
@@ -13723,7 +13723,7 @@
         <v>74.925</v>
       </c>
       <c r="F668" t="n">
-        <v>0.164835</v>
+        <v>164.835</v>
       </c>
     </row>
     <row r="669">
@@ -13743,7 +13743,7 @@
         <v>74.655</v>
       </c>
       <c r="F669" t="n">
-        <v>0.164241</v>
+        <v>164.241</v>
       </c>
     </row>
     <row r="670">
@@ -13763,7 +13763,7 @@
         <v>80.715</v>
       </c>
       <c r="F670" t="n">
-        <v>0.17821872</v>
+        <v>178.21872</v>
       </c>
     </row>
     <row r="671">
@@ -13783,7 +13783,7 @@
         <v>80.625</v>
       </c>
       <c r="F671" t="n">
-        <v>0.1776975</v>
+        <v>177.6975</v>
       </c>
     </row>
     <row r="672">
@@ -13803,7 +13803,7 @@
         <v>80.80499999999999</v>
       </c>
       <c r="F672" t="n">
-        <v>0.17809422</v>
+        <v>178.09422</v>
       </c>
     </row>
     <row r="673">
@@ -13823,7 +13823,7 @@
         <v>81.03</v>
       </c>
       <c r="F673" t="n">
-        <v>0.17923836</v>
+        <v>179.23836</v>
       </c>
     </row>
     <row r="674">
@@ -13843,7 +13843,7 @@
         <v>80.625</v>
       </c>
       <c r="F674" t="n">
-        <v>0.1776975</v>
+        <v>177.6975</v>
       </c>
     </row>
     <row r="675">
@@ -13863,7 +13863,7 @@
         <v>80.52</v>
       </c>
       <c r="F675" t="n">
-        <v>0.17778816</v>
+        <v>177.78816</v>
       </c>
     </row>
     <row r="676">
@@ -13883,7 +13883,7 @@
         <v>74.625</v>
       </c>
       <c r="F676" t="n">
-        <v>0.164175</v>
+        <v>164.175</v>
       </c>
     </row>
     <row r="677">
@@ -13903,7 +13903,7 @@
         <v>71.94</v>
       </c>
       <c r="F677" t="n">
-        <v>0.15798024</v>
+        <v>157.98024</v>
       </c>
     </row>
     <row r="678">
@@ -13923,7 +13923,7 @@
         <v>70.66499999999999</v>
       </c>
       <c r="F678" t="n">
-        <v>0.155463</v>
+        <v>155.463</v>
       </c>
     </row>
     <row r="679">
@@ -13943,7 +13943,7 @@
         <v>72.645</v>
       </c>
       <c r="F679" t="n">
-        <v>0.15952842</v>
+        <v>159.52842</v>
       </c>
     </row>
     <row r="680">
@@ -13963,7 +13963,7 @@
         <v>73.53</v>
       </c>
       <c r="F680" t="n">
-        <v>0.161766</v>
+        <v>161.766</v>
       </c>
     </row>
     <row r="681">
@@ -13983,7 +13983,7 @@
         <v>57.84</v>
       </c>
       <c r="F681" t="n">
-        <v>0.12678528</v>
+        <v>126.78528</v>
       </c>
     </row>
     <row r="682">
@@ -14003,7 +14003,7 @@
         <v>63.315</v>
       </c>
       <c r="F682" t="n">
-        <v>0.13903974</v>
+        <v>139.03974</v>
       </c>
     </row>
     <row r="683">
@@ -14023,7 +14023,7 @@
         <v>70.34999999999999</v>
       </c>
       <c r="F683" t="n">
-        <v>0.1553328</v>
+        <v>155.3328</v>
       </c>
     </row>
     <row r="684">
@@ -14043,7 +14043,7 @@
         <v>70.965</v>
       </c>
       <c r="F684" t="n">
-        <v>0.156123</v>
+        <v>156.123</v>
       </c>
     </row>
     <row r="685">
@@ -14063,7 +14063,7 @@
         <v>70.72499999999999</v>
       </c>
       <c r="F685" t="n">
-        <v>0.1558779</v>
+        <v>155.8779</v>
       </c>
     </row>
     <row r="686">
@@ -14083,7 +14083,7 @@
         <v>70.38</v>
       </c>
       <c r="F686" t="n">
-        <v>0.15455448</v>
+        <v>154.55448</v>
       </c>
     </row>
     <row r="687">
@@ -14103,7 +14103,7 @@
         <v>69.825</v>
       </c>
       <c r="F687" t="n">
-        <v>0.1533357</v>
+        <v>153.3357</v>
       </c>
     </row>
     <row r="688">
@@ -14123,7 +14123,7 @@
         <v>68.595</v>
       </c>
       <c r="F688" t="n">
-        <v>0.15008586</v>
+        <v>150.08586</v>
       </c>
     </row>
     <row r="689">
@@ -14143,7 +14143,7 @@
         <v>68.00999999999999</v>
       </c>
       <c r="F689" t="n">
-        <v>0.14989404</v>
+        <v>149.89404</v>
       </c>
     </row>
     <row r="690">
@@ -14163,7 +14163,7 @@
         <v>62.415</v>
       </c>
       <c r="F690" t="n">
-        <v>0.13656402</v>
+        <v>136.56402</v>
       </c>
     </row>
     <row r="691">
@@ -14183,7 +14183,7 @@
         <v>61.125</v>
       </c>
       <c r="F691" t="n">
-        <v>0.134964</v>
+        <v>134.964</v>
       </c>
     </row>
     <row r="692">
@@ -14203,7 +14203,7 @@
         <v>59.13</v>
       </c>
       <c r="F692" t="n">
-        <v>0.12984948</v>
+        <v>129.84948</v>
       </c>
     </row>
     <row r="693">
@@ -14223,7 +14223,7 @@
         <v>61.485</v>
       </c>
       <c r="F693" t="n">
-        <v>0.13477512</v>
+        <v>134.77512</v>
       </c>
     </row>
     <row r="694">
@@ -14243,7 +14243,7 @@
         <v>61.36499999999999</v>
       </c>
       <c r="F694" t="n">
-        <v>0.13475754</v>
+        <v>134.75754</v>
       </c>
     </row>
     <row r="695">
@@ -14263,7 +14263,7 @@
         <v>60.465</v>
       </c>
       <c r="F695" t="n">
-        <v>0.1318137</v>
+        <v>131.8137</v>
       </c>
     </row>
     <row r="696">
@@ -14283,7 +14283,7 @@
         <v>61.05</v>
       </c>
       <c r="F696" t="n">
-        <v>0.1333332</v>
+        <v>133.3332</v>
       </c>
     </row>
     <row r="697">
@@ -14303,7 +14303,7 @@
         <v>60.06</v>
       </c>
       <c r="F697" t="n">
-        <v>0.1309308</v>
+        <v>130.9308</v>
       </c>
     </row>
     <row r="698">
@@ -14323,7 +14323,7 @@
         <v>59.4</v>
       </c>
       <c r="F698" t="n">
-        <v>0.1304424</v>
+        <v>130.4424</v>
       </c>
     </row>
     <row r="699">
@@ -14343,7 +14343,7 @@
         <v>58.71</v>
       </c>
       <c r="F699" t="n">
-        <v>0.12869232</v>
+        <v>128.69232</v>
       </c>
     </row>
     <row r="700">
@@ -14363,7 +14363,7 @@
         <v>57.915</v>
       </c>
       <c r="F700" t="n">
-        <v>0.12694968</v>
+        <v>126.94968</v>
       </c>
     </row>
     <row r="701">
@@ -14383,7 +14383,7 @@
         <v>57.315</v>
       </c>
       <c r="F701" t="n">
-        <v>0.12632226</v>
+        <v>126.32226</v>
       </c>
     </row>
     <row r="702">
@@ -14403,7 +14403,7 @@
         <v>53.505</v>
       </c>
       <c r="F702" t="n">
-        <v>0.11706894</v>
+        <v>117.06894</v>
       </c>
     </row>
     <row r="703">
@@ -14423,7 +14423,7 @@
         <v>54.54</v>
       </c>
       <c r="F703" t="n">
-        <v>0.11911536</v>
+        <v>119.11536</v>
       </c>
     </row>
     <row r="704">
@@ -14443,7 +14443,7 @@
         <v>54.3</v>
       </c>
       <c r="F704" t="n">
-        <v>0.1188084</v>
+        <v>118.8084</v>
       </c>
     </row>
     <row r="705">
@@ -14463,7 +14463,7 @@
         <v>53.85</v>
       </c>
       <c r="F705" t="n">
-        <v>0.117393</v>
+        <v>117.393</v>
       </c>
     </row>
     <row r="706">
@@ -14483,7 +14483,7 @@
         <v>53.265</v>
       </c>
       <c r="F706" t="n">
-        <v>0.1161177</v>
+        <v>116.1177</v>
       </c>
     </row>
     <row r="707">
@@ -14503,7 +14503,7 @@
         <v>52.68</v>
       </c>
       <c r="F707" t="n">
-        <v>0.11526384</v>
+        <v>115.26384</v>
       </c>
     </row>
     <row r="708">
@@ -14523,7 +14523,7 @@
         <v>51.69</v>
       </c>
       <c r="F708" t="n">
-        <v>0.11227068</v>
+        <v>112.27068</v>
       </c>
     </row>
     <row r="709">
@@ -14543,7 +14543,7 @@
         <v>51.09</v>
       </c>
       <c r="F709" t="n">
-        <v>0.11158056</v>
+        <v>111.58056</v>
       </c>
     </row>
     <row r="710">
@@ -14563,7 +14563,7 @@
         <v>50.55</v>
       </c>
       <c r="F710" t="n">
-        <v>0.1104012</v>
+        <v>110.4012</v>
       </c>
     </row>
     <row r="711">
@@ -14583,7 +14583,7 @@
         <v>49.98</v>
       </c>
       <c r="F711" t="n">
-        <v>0.10915632</v>
+        <v>109.15632</v>
       </c>
     </row>
     <row r="712">
@@ -14603,7 +14603,7 @@
         <v>47.94</v>
       </c>
       <c r="F712" t="n">
-        <v>0.10412568</v>
+        <v>104.12568</v>
       </c>
     </row>
     <row r="713">
@@ -14623,7 +14623,7 @@
         <v>47.4</v>
       </c>
       <c r="F713" t="n">
-        <v>0.103332</v>
+        <v>103.332</v>
       </c>
     </row>
     <row r="714">
@@ -14643,7 +14643,7 @@
         <v>46.77</v>
       </c>
       <c r="F714" t="n">
-        <v>0.10251984</v>
+        <v>102.51984</v>
       </c>
     </row>
     <row r="715">
@@ -14663,7 +14663,7 @@
         <v>46.245</v>
       </c>
       <c r="F715" t="n">
-        <v>0.10099908</v>
+        <v>100.99908</v>
       </c>
     </row>
     <row r="716">
@@ -14683,7 +14683,7 @@
         <v>45.15</v>
       </c>
       <c r="F716" t="n">
-        <v>0.09878820000000001</v>
+        <v>98.7882</v>
       </c>
     </row>
     <row r="717">
@@ -14703,7 +14703,7 @@
         <v>44.11499999999999</v>
       </c>
       <c r="F717" t="n">
-        <v>0.09599423999999999</v>
+        <v>95.99423999999999</v>
       </c>
     </row>
     <row r="718">
@@ -14723,7 +14723,7 @@
         <v>42.975</v>
       </c>
       <c r="F718" t="n">
-        <v>0.09351360000000002</v>
+        <v>93.51360000000001</v>
       </c>
     </row>
     <row r="719">
@@ -14743,7 +14743,7 @@
         <v>42.435</v>
       </c>
       <c r="F719" t="n">
-        <v>0.09233856</v>
+        <v>92.33856</v>
       </c>
     </row>
     <row r="720">
@@ -14763,7 +14763,7 @@
         <v>41.865</v>
       </c>
       <c r="F720" t="n">
-        <v>0.09126570000000001</v>
+        <v>91.26570000000001</v>
       </c>
     </row>
     <row r="721">
@@ -14783,7 +14783,7 @@
         <v>41.25</v>
       </c>
       <c r="F721" t="n">
-        <v>0.08976000000000001</v>
+        <v>89.76000000000001</v>
       </c>
     </row>
     <row r="722">
@@ -14803,7 +14803,7 @@
         <v>40.665</v>
       </c>
       <c r="F722" t="n">
-        <v>0.08848704</v>
+        <v>88.48704000000001</v>
       </c>
     </row>
     <row r="723">
@@ -14823,7 +14823,7 @@
         <v>40.05</v>
       </c>
       <c r="F723" t="n">
-        <v>0.0871488</v>
+        <v>87.14879999999999</v>
       </c>
     </row>
     <row r="724">
@@ -14843,7 +14843,7 @@
         <v>39.465</v>
       </c>
       <c r="F724" t="n">
-        <v>0.08587583999999999</v>
+        <v>85.87584</v>
       </c>
     </row>
     <row r="725">
@@ -14863,7 +14863,7 @@
         <v>38.895</v>
       </c>
       <c r="F725" t="n">
-        <v>0.08463552000000001</v>
+        <v>84.63552</v>
       </c>
     </row>
     <row r="726">
@@ -14883,7 +14883,7 @@
         <v>38.295</v>
       </c>
       <c r="F726" t="n">
-        <v>0.08332992000000002</v>
+        <v>83.32992000000002</v>
       </c>
     </row>
     <row r="727">
@@ -14903,7 +14903,7 @@
         <v>35.79</v>
       </c>
       <c r="F727" t="n">
-        <v>0.07787904</v>
+        <v>77.87904</v>
       </c>
     </row>
     <row r="728">
@@ -14923,7 +14923,7 @@
         <v>36.27</v>
       </c>
       <c r="F728" t="n">
-        <v>0.07877844000000001</v>
+        <v>78.77844</v>
       </c>
     </row>
     <row r="729">
@@ -14943,7 +14943,7 @@
         <v>32.88</v>
       </c>
       <c r="F729" t="n">
-        <v>0.07141536</v>
+        <v>71.41535999999999</v>
       </c>
     </row>
     <row r="730">
@@ -14963,7 +14963,7 @@
         <v>31.62</v>
       </c>
       <c r="F730" t="n">
-        <v>0.06867864</v>
+        <v>68.67864</v>
       </c>
     </row>
     <row r="731">
@@ -14983,7 +14983,7 @@
         <v>30.945</v>
       </c>
       <c r="F731" t="n">
-        <v>0.0668412</v>
+        <v>66.8412</v>
       </c>
     </row>
     <row r="732">
@@ -15003,7 +15003,7 @@
         <v>33.96</v>
       </c>
       <c r="F732" t="n">
-        <v>0.07362528</v>
+        <v>73.62528</v>
       </c>
     </row>
     <row r="733">
@@ -15023,7 +15023,7 @@
         <v>32.25</v>
       </c>
       <c r="F733" t="n">
-        <v>0.069789</v>
+        <v>69.789</v>
       </c>
     </row>
     <row r="734">
@@ -15043,7 +15043,7 @@
         <v>31.695</v>
       </c>
       <c r="F734" t="n">
-        <v>0.06858798000000001</v>
+        <v>68.58798</v>
       </c>
     </row>
     <row r="735">
@@ -15063,7 +15063,7 @@
         <v>29.985</v>
       </c>
       <c r="F735" t="n">
-        <v>0.06500748000000001</v>
+        <v>65.00748</v>
       </c>
     </row>
     <row r="736">
@@ -15083,7 +15083,7 @@
         <v>29.4</v>
       </c>
       <c r="F736" t="n">
-        <v>0.0636216</v>
+        <v>63.6216</v>
       </c>
     </row>
     <row r="737">
@@ -15103,7 +15103,7 @@
         <v>28.05</v>
       </c>
       <c r="F737" t="n">
-        <v>0.06047580000000001</v>
+        <v>60.47580000000001</v>
       </c>
     </row>
     <row r="738">
@@ -15123,7 +15123,7 @@
         <v>26.04</v>
       </c>
       <c r="F738" t="n">
-        <v>0.0567672</v>
+        <v>56.7672</v>
       </c>
     </row>
     <row r="739">
@@ -15143,7 +15143,7 @@
         <v>25.035</v>
       </c>
       <c r="F739" t="n">
-        <v>0.05417574000000001</v>
+        <v>54.17574</v>
       </c>
     </row>
     <row r="740">
@@ -15163,7 +15163,7 @@
         <v>23.22</v>
       </c>
       <c r="F740" t="n">
-        <v>0.05071248</v>
+        <v>50.71248</v>
       </c>
     </row>
     <row r="741">
@@ -15183,7 +15183,7 @@
         <v>21.885</v>
       </c>
       <c r="F741" t="n">
-        <v>0.0472716</v>
+        <v>47.2716</v>
       </c>
     </row>
     <row r="742">
@@ -15203,7 +15203,7 @@
         <v>21.165</v>
       </c>
       <c r="F742" t="n">
-        <v>0.04588572</v>
+        <v>45.88572</v>
       </c>
     </row>
     <row r="743">
@@ -15223,7 +15223,7 @@
         <v>20.985</v>
       </c>
       <c r="F743" t="n">
-        <v>0.04524366</v>
+        <v>45.24366</v>
       </c>
     </row>
     <row r="744">
@@ -15243,7 +15243,7 @@
         <v>20.82</v>
       </c>
       <c r="F744" t="n">
-        <v>0.04488792</v>
+        <v>44.88792</v>
       </c>
     </row>
     <row r="745">
@@ -15263,7 +15263,7 @@
         <v>20.46</v>
       </c>
       <c r="F745" t="n">
-        <v>0.04378440000000001</v>
+        <v>43.78440000000001</v>
       </c>
     </row>
     <row r="746">
@@ -15283,7 +15283,7 @@
         <v>20.31</v>
       </c>
       <c r="F746" t="n">
-        <v>0.04321968</v>
+        <v>43.21968</v>
       </c>
     </row>
     <row r="747">
@@ -15303,7 +15303,7 @@
         <v>20.355</v>
       </c>
       <c r="F747" t="n">
-        <v>0.04396680000000001</v>
+        <v>43.96680000000001</v>
       </c>
     </row>
     <row r="748">
@@ -15323,7 +15323,7 @@
         <v>20.04</v>
       </c>
       <c r="F748" t="n">
-        <v>0.04304592</v>
+        <v>43.04592</v>
       </c>
     </row>
     <row r="749">
@@ -15343,7 +15343,7 @@
         <v>19.335</v>
       </c>
       <c r="F749" t="n">
-        <v>0.04168626</v>
+        <v>41.68626</v>
       </c>
     </row>
     <row r="750">
@@ -15363,7 +15363,7 @@
         <v>19.035</v>
       </c>
       <c r="F750" t="n">
-        <v>0.04103946000000001</v>
+        <v>41.03946000000001</v>
       </c>
     </row>
     <row r="751">
@@ -15383,7 +15383,7 @@
         <v>18.645</v>
       </c>
       <c r="F751" t="n">
-        <v>0.0406461</v>
+        <v>40.6461</v>
       </c>
     </row>
     <row r="752">
@@ -15403,7 +15403,7 @@
         <v>17.895</v>
       </c>
       <c r="F752" t="n">
-        <v>0.0382953</v>
+        <v>38.2953</v>
       </c>
     </row>
     <row r="753">
@@ -15423,7 +15423,7 @@
         <v>17.415</v>
       </c>
       <c r="F753" t="n">
-        <v>0.03824334</v>
+        <v>38.24334</v>
       </c>
     </row>
     <row r="754">
@@ -15443,7 +15443,7 @@
         <v>15.66</v>
       </c>
       <c r="F754" t="n">
-        <v>0.0338256</v>
+        <v>33.82559999999999</v>
       </c>
     </row>
     <row r="755">
@@ -15463,7 +15463,7 @@
         <v>12.495</v>
       </c>
       <c r="F755" t="n">
-        <v>0.02678928</v>
+        <v>26.78928</v>
       </c>
     </row>
     <row r="756">
@@ -15483,7 +15483,7 @@
         <v>11.985</v>
       </c>
       <c r="F756" t="n">
-        <v>0.02598348</v>
+        <v>25.98348</v>
       </c>
     </row>
     <row r="757">
@@ -15503,7 +15503,7 @@
         <v>12.33</v>
       </c>
       <c r="F757" t="n">
-        <v>0.02653416</v>
+        <v>26.53416</v>
       </c>
     </row>
     <row r="758">
@@ -15523,7 +15523,7 @@
         <v>8.685</v>
       </c>
       <c r="F758" t="n">
-        <v>0.0187596</v>
+        <v>18.7596</v>
       </c>
     </row>
     <row r="759">
@@ -15543,7 +15543,7 @@
         <v>7.319999999999999</v>
       </c>
       <c r="F759" t="n">
-        <v>0.015372</v>
+        <v>15.372</v>
       </c>
     </row>
     <row r="760">
@@ -15563,7 +15563,7 @@
         <v>6.705</v>
       </c>
       <c r="F760" t="n">
-        <v>0.01440234</v>
+        <v>14.40234</v>
       </c>
     </row>
     <row r="761">
@@ -15583,7 +15583,7 @@
         <v>6.45</v>
       </c>
       <c r="F761" t="n">
-        <v>0.0140094</v>
+        <v>14.0094</v>
       </c>
     </row>
     <row r="762">
@@ -15603,7 +15603,7 @@
         <v>6.225</v>
       </c>
       <c r="F762" t="n">
-        <v>0.0136452</v>
+        <v>13.6452</v>
       </c>
     </row>
     <row r="763">
@@ -15623,7 +15623,7 @@
         <v>5.88</v>
       </c>
       <c r="F763" t="n">
-        <v>0.01253616</v>
+        <v>12.53616</v>
       </c>
     </row>
     <row r="764">
@@ -15643,7 +15643,7 @@
         <v>5.73</v>
       </c>
       <c r="F764" t="n">
-        <v>0.0127206</v>
+        <v>12.7206</v>
       </c>
     </row>
     <row r="765">
@@ -15663,7 +15663,7 @@
         <v>5.595</v>
       </c>
       <c r="F765" t="n">
-        <v>0.01192854</v>
+        <v>11.92854</v>
       </c>
     </row>
     <row r="766">
@@ -15683,7 +15683,7 @@
         <v>5.43</v>
       </c>
       <c r="F766" t="n">
-        <v>0.01175052</v>
+        <v>11.75052</v>
       </c>
     </row>
     <row r="767">
@@ -15703,7 +15703,7 @@
         <v>5.205</v>
       </c>
       <c r="F767" t="n">
-        <v>0.01128444</v>
+        <v>11.28444</v>
       </c>
     </row>
     <row r="768">
@@ -15723,7 +15723,7 @@
         <v>5.115</v>
       </c>
       <c r="F768" t="n">
-        <v>0.01133484</v>
+        <v>11.33484</v>
       </c>
     </row>
     <row r="769">
@@ -15743,7 +15743,7 @@
         <v>5.04</v>
       </c>
       <c r="F769" t="n">
-        <v>0.0109872</v>
+        <v>10.9872</v>
       </c>
     </row>
     <row r="770">
@@ -15763,7 +15763,7 @@
         <v>4.935</v>
       </c>
       <c r="F770" t="n">
-        <v>0.01054116</v>
+        <v>10.54116</v>
       </c>
     </row>
     <row r="771">
@@ -15783,7 +15783,7 @@
         <v>4.815</v>
       </c>
       <c r="F771" t="n">
-        <v>0.01057374</v>
+        <v>10.57374</v>
       </c>
     </row>
     <row r="772">
@@ -15803,7 +15803,7 @@
         <v>4.545</v>
       </c>
       <c r="F772" t="n">
-        <v>0.009980820000000001</v>
+        <v>9.980820000000001</v>
       </c>
     </row>
     <row r="773">
@@ -15823,7 +15823,7 @@
         <v>4.455</v>
       </c>
       <c r="F773" t="n">
-        <v>0.009622800000000001</v>
+        <v>9.622800000000002</v>
       </c>
     </row>
     <row r="774">
@@ -15843,7 +15843,7 @@
         <v>4.41</v>
       </c>
       <c r="F774" t="n">
-        <v>0.009825480000000001</v>
+        <v>9.825480000000001</v>
       </c>
     </row>
     <row r="775">
@@ -15863,7 +15863,7 @@
         <v>4.02</v>
       </c>
       <c r="F775" t="n">
-        <v>0.00845808</v>
+        <v>8.458079999999999</v>
       </c>
     </row>
     <row r="776">
@@ -15883,7 +15883,7 @@
         <v>3.765</v>
       </c>
       <c r="F776" t="n">
-        <v>0.00834324</v>
+        <v>8.34324</v>
       </c>
     </row>
     <row r="777">
@@ -15903,7 +15903,7 @@
         <v>3.645</v>
       </c>
       <c r="F777" t="n">
-        <v>0.00804816</v>
+        <v>8.048160000000001</v>
       </c>
     </row>
     <row r="778">
@@ -15923,7 +15923,7 @@
         <v>3.54</v>
       </c>
       <c r="F778" t="n">
-        <v>0.00763224</v>
+        <v>7.63224</v>
       </c>
     </row>
     <row r="779">
@@ -15943,7 +15943,7 @@
         <v>3.45</v>
       </c>
       <c r="F779" t="n">
-        <v>0.0074244</v>
+        <v>7.4244</v>
       </c>
     </row>
     <row r="780">
@@ -15963,7 +15963,7 @@
         <v>3.315</v>
       </c>
       <c r="F780" t="n">
-        <v>0.0072267</v>
+        <v>7.2267</v>
       </c>
     </row>
     <row r="781">
@@ -15983,7 +15983,7 @@
         <v>3.255</v>
       </c>
       <c r="F781" t="n">
-        <v>0.00706986</v>
+        <v>7.06986</v>
       </c>
     </row>
     <row r="782">
@@ -16003,7 +16003,7 @@
         <v>3.165</v>
       </c>
       <c r="F782" t="n">
-        <v>0.006811080000000001</v>
+        <v>6.81108</v>
       </c>
     </row>
     <row r="783">
@@ -16023,7 +16023,7 @@
         <v>3.06</v>
       </c>
       <c r="F783" t="n">
-        <v>0.00664632</v>
+        <v>6.64632</v>
       </c>
     </row>
     <row r="784">
@@ -16043,7 +16043,7 @@
         <v>2.985</v>
       </c>
       <c r="F784" t="n">
-        <v>0.00649536</v>
+        <v>6.495360000000001</v>
       </c>
     </row>
     <row r="785">
@@ -16063,7 +16063,7 @@
         <v>2.91</v>
       </c>
       <c r="F785" t="n">
-        <v>0.00625068</v>
+        <v>6.25068</v>
       </c>
     </row>
     <row r="786">
@@ -16083,7 +16083,7 @@
         <v>2.82</v>
       </c>
       <c r="F786" t="n">
-        <v>0.00610248</v>
+        <v>6.102480000000001</v>
       </c>
     </row>
     <row r="787">
@@ -16103,7 +16103,7 @@
         <v>2.745</v>
       </c>
       <c r="F787" t="n">
-        <v>0.00589626</v>
+        <v>5.896260000000001</v>
       </c>
     </row>
     <row r="788">
@@ -16123,7 +16123,7 @@
         <v>2.67</v>
       </c>
       <c r="F788" t="n">
-        <v>0.0057138</v>
+        <v>5.7138</v>
       </c>
     </row>
     <row r="789">
@@ -16143,7 +16143,7 @@
         <v>2.535</v>
       </c>
       <c r="F789" t="n">
-        <v>0.00549588</v>
+        <v>5.49588</v>
       </c>
     </row>
     <row r="790">
@@ -16163,7 +16163,7 @@
         <v>2.46</v>
       </c>
       <c r="F790" t="n">
-        <v>0.00533328</v>
+        <v>5.33328</v>
       </c>
     </row>
     <row r="791">
@@ -16183,7 +16183,7 @@
         <v>2.385</v>
       </c>
       <c r="F791" t="n">
-        <v>0.00521838</v>
+        <v>5.21838</v>
       </c>
     </row>
     <row r="792">
@@ -16203,7 +16203,7 @@
         <v>2.265</v>
       </c>
       <c r="F792" t="n">
-        <v>0.004901460000000001</v>
+        <v>4.901460000000001</v>
       </c>
     </row>
     <row r="793">
@@ -16223,7 +16223,7 @@
         <v>2.16</v>
       </c>
       <c r="F793" t="n">
-        <v>0.004648320000000001</v>
+        <v>4.648320000000001</v>
       </c>
     </row>
     <row r="794">
@@ -16243,7 +16243,7 @@
         <v>2.1</v>
       </c>
       <c r="F794" t="n">
-        <v>0.0047796</v>
+        <v>4.7796</v>
       </c>
     </row>
     <row r="795">
@@ -16263,7 +16263,7 @@
         <v>2.07</v>
       </c>
       <c r="F795" t="n">
-        <v>0.00445464</v>
+        <v>4.45464</v>
       </c>
     </row>
     <row r="796">
@@ -16283,7 +16283,7 @@
         <v>1.965</v>
       </c>
       <c r="F796" t="n">
-        <v>0.00426012</v>
+        <v>4.26012</v>
       </c>
     </row>
     <row r="797">
@@ -16303,7 +16303,7 @@
         <v>1.89</v>
       </c>
       <c r="F797" t="n">
-        <v>0.004339440000000001</v>
+        <v>4.339440000000001</v>
       </c>
     </row>
     <row r="798">
@@ -16323,7 +16323,7 @@
         <v>1.86</v>
       </c>
       <c r="F798" t="n">
-        <v>0.00409944</v>
+        <v>4.09944</v>
       </c>
     </row>
     <row r="799">
@@ -16343,7 +16343,7 @@
         <v>1.815</v>
       </c>
       <c r="F799" t="n">
-        <v>0.0039567</v>
+        <v>3.9567</v>
       </c>
     </row>
     <row r="800">
@@ -16363,7 +16363,7 @@
         <v>1.74</v>
       </c>
       <c r="F800" t="n">
-        <v>0.0038976</v>
+        <v>3.8976</v>
       </c>
     </row>
     <row r="801">
@@ -16383,7 +16383,7 @@
         <v>1.65</v>
       </c>
       <c r="F801" t="n">
-        <v>0.0036432</v>
+        <v>3.6432</v>
       </c>
     </row>
     <row r="802">
@@ -16403,7 +16403,7 @@
         <v>1.56</v>
       </c>
       <c r="F802" t="n">
-        <v>0.003500640000000001</v>
+        <v>3.500640000000001</v>
       </c>
     </row>
     <row r="803">
@@ -16423,7 +16423,7 @@
         <v>1.53</v>
       </c>
       <c r="F803" t="n">
-        <v>0.0033966</v>
+        <v>3.3966</v>
       </c>
     </row>
     <row r="804">
@@ -16443,7 +16443,7 @@
         <v>1.38</v>
       </c>
       <c r="F804" t="n">
-        <v>0.00306912</v>
+        <v>3.06912</v>
       </c>
     </row>
     <row r="805">
@@ -16463,7 +16463,7 @@
         <v>1.35</v>
       </c>
       <c r="F805" t="n">
-        <v>0.0030348</v>
+        <v>3.0348</v>
       </c>
     </row>
     <row r="806">
@@ -16483,7 +16483,7 @@
         <v>1.305</v>
       </c>
       <c r="F806" t="n">
-        <v>0.0028971</v>
+        <v>2.8971</v>
       </c>
     </row>
     <row r="807">
@@ -16503,7 +16503,7 @@
         <v>1.245</v>
       </c>
       <c r="F807" t="n">
-        <v>0.00272406</v>
+        <v>2.72406</v>
       </c>
     </row>
     <row r="808">
@@ -16523,7 +16523,7 @@
         <v>1.17</v>
       </c>
       <c r="F808" t="n">
-        <v>0.00259272</v>
+        <v>2.59272</v>
       </c>
     </row>
     <row r="809">
@@ -16543,7 +16543,7 @@
         <v>1.08</v>
       </c>
       <c r="F809" t="n">
-        <v>0.00235872</v>
+        <v>2.35872</v>
       </c>
     </row>
     <row r="810">
@@ -16563,7 +16563,7 @@
         <v>1.035</v>
       </c>
       <c r="F810" t="n">
-        <v>0.00228114</v>
+        <v>2.28114</v>
       </c>
     </row>
     <row r="811">
@@ -16583,7 +16583,7 @@
         <v>0.96</v>
       </c>
       <c r="F811" t="n">
-        <v>0.0021504</v>
+        <v>2.1504</v>
       </c>
     </row>
     <row r="812">
@@ -16603,7 +16603,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="F812" t="n">
-        <v>0.00211296</v>
+        <v>2.11296</v>
       </c>
     </row>
     <row r="813">
@@ -16623,7 +16623,7 @@
         <v>0.885</v>
       </c>
       <c r="F813" t="n">
-        <v>0.00196824</v>
+        <v>1.96824</v>
       </c>
     </row>
     <row r="814">
@@ -16643,7 +16643,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F814" t="n">
-        <v>0.00180144</v>
+        <v>1.80144</v>
       </c>
     </row>
     <row r="815">
@@ -16663,7 +16663,7 @@
         <v>0.735</v>
       </c>
       <c r="F815" t="n">
-        <v>0.00162582</v>
+        <v>1.62582</v>
       </c>
     </row>
     <row r="816">
@@ -16683,7 +16683,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F816" t="n">
-        <v>0.0015093</v>
+        <v>1.5093</v>
       </c>
     </row>
     <row r="817">
@@ -16703,7 +16703,7 @@
         <v>0.6</v>
       </c>
       <c r="F817" t="n">
-        <v>0.0013392</v>
+        <v>1.3392</v>
       </c>
     </row>
     <row r="818">
@@ -16723,7 +16723,7 @@
         <v>0.585</v>
       </c>
       <c r="F818" t="n">
-        <v>0.00128232</v>
+        <v>1.28232</v>
       </c>
     </row>
     <row r="819">
@@ -16743,7 +16743,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F819" t="n">
-        <v>0.0012099</v>
+        <v>1.2099</v>
       </c>
     </row>
     <row r="820">
@@ -16763,7 +16763,7 @@
         <v>0.525</v>
       </c>
       <c r="F820" t="n">
-        <v>0.0011655</v>
+        <v>1.1655</v>
       </c>
     </row>
     <row r="821">
@@ -16783,7 +16783,7 @@
         <v>0.435</v>
       </c>
       <c r="F821" t="n">
-        <v>0.00098832</v>
+        <v>0.98832</v>
       </c>
     </row>
     <row r="822">
@@ -16803,7 +16803,7 @@
         <v>0.405</v>
       </c>
       <c r="F822" t="n">
-        <v>0.00091854</v>
+        <v>0.91854</v>
       </c>
     </row>
     <row r="823">
@@ -16823,7 +16823,7 @@
         <v>0.405</v>
       </c>
       <c r="F823" t="n">
-        <v>0.00088776</v>
+        <v>0.88776</v>
       </c>
     </row>
     <row r="824">
@@ -16843,7 +16843,7 @@
         <v>0.375</v>
       </c>
       <c r="F824" t="n">
-        <v>0.0008535000000000002</v>
+        <v>0.8535000000000001</v>
       </c>
     </row>
     <row r="825">
@@ -16863,7 +16863,7 @@
         <v>0.345</v>
       </c>
       <c r="F825" t="n">
-        <v>0.00075486</v>
+        <v>0.75486</v>
       </c>
     </row>
     <row r="826">
@@ -16883,7 +16883,7 @@
         <v>0.315</v>
       </c>
       <c r="F826" t="n">
-        <v>0.00070056</v>
+        <v>0.7005600000000001</v>
       </c>
     </row>
     <row r="827">
@@ -16903,7 +16903,7 @@
         <v>0.27</v>
       </c>
       <c r="F827" t="n">
-        <v>0.0006231600000000001</v>
+        <v>0.62316</v>
       </c>
     </row>
     <row r="828">
@@ -16923,7 +16923,7 @@
         <v>0.255</v>
       </c>
       <c r="F828" t="n">
-        <v>0.0005783400000000001</v>
+        <v>0.5783400000000001</v>
       </c>
     </row>
     <row r="829">
@@ -16943,7 +16943,7 @@
         <v>0.24</v>
       </c>
       <c r="F829" t="n">
-        <v>0.0005356800000000001</v>
+        <v>0.53568</v>
       </c>
     </row>
     <row r="830">
@@ -16963,7 +16963,7 @@
         <v>0.24</v>
       </c>
       <c r="F830" t="n">
-        <v>0.0005376000000000001</v>
+        <v>0.5376000000000001</v>
       </c>
     </row>
     <row r="831">
@@ -16983,7 +16983,7 @@
         <v>0.225</v>
       </c>
       <c r="F831" t="n">
-        <v>0.0004959</v>
+        <v>0.4959</v>
       </c>
     </row>
     <row r="832">
@@ -17003,7 +17003,7 @@
         <v>0.195</v>
       </c>
       <c r="F832" t="n">
-        <v>0.0004344600000000001</v>
+        <v>0.4344600000000001</v>
       </c>
     </row>
     <row r="833">
@@ -17023,7 +17023,7 @@
         <v>0.18</v>
       </c>
       <c r="F833" t="n">
-        <v>0.00041904</v>
+        <v>0.41904</v>
       </c>
     </row>
     <row r="834">
@@ -17043,7 +17043,7 @@
         <v>0.165</v>
       </c>
       <c r="F834" t="n">
-        <v>0.00036894</v>
+        <v>0.36894</v>
       </c>
     </row>
     <row r="835">
@@ -17063,7 +17063,7 @@
         <v>0.15</v>
       </c>
       <c r="F835" t="n">
-        <v>0.0003432</v>
+        <v>0.3432</v>
       </c>
     </row>
     <row r="836">
@@ -17083,7 +17083,7 @@
         <v>0.12</v>
       </c>
       <c r="F836" t="n">
-        <v>0.00027888</v>
+        <v>0.27888</v>
       </c>
     </row>
     <row r="837">
@@ -17103,7 +17103,7 @@
         <v>0.06</v>
       </c>
       <c r="F837" t="n">
-        <v>0.00014136</v>
+        <v>0.14136</v>
       </c>
     </row>
     <row r="838">
@@ -17123,7 +17123,7 @@
         <v>0.06</v>
       </c>
       <c r="F838" t="n">
-        <v>0.0001392</v>
+        <v>0.1392</v>
       </c>
     </row>
     <row r="839">
@@ -17143,7 +17143,7 @@
         <v>0.015</v>
       </c>
       <c r="F839" t="n">
-        <v>3.599999999999999e-05</v>
+        <v>0.03599999999999999</v>
       </c>
     </row>
     <row r="840">
